--- a/src/csv/dut.xlsx
+++ b/src/csv/dut.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magne.syljuasen\Progg\bergvarmekalkulator\bergvarme\src\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magne.syljuasen\kode\streamlit-bergvarmekalkulator\src\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A24AE79-A374-47FE-8E4B-30D088D097AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEC1536-3F91-49C8-AC33-4B27657C7569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="18240" windowHeight="29040" xr2:uid="{32643BE5-BBFF-47AD-8242-E1EAE297C85A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{32643BE5-BBFF-47AD-8242-E1EAE297C85A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1117,6 +1117,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1146,11 +1149,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1465,3940 +1470,5011 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821A38D4-6B88-4780-85AF-9F3F2870677A}">
-  <dimension ref="A1:C357"/>
+  <dimension ref="A1:I357"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>301</v>
       </c>
-      <c r="B2">
-        <v>-24.797618570000001</v>
-      </c>
-      <c r="C2">
-        <v>28.20133092</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B2" s="3">
+        <v>-17.621997650000001</v>
+      </c>
+      <c r="C2" s="3">
+        <v>24.72325618</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1101</v>
       </c>
-      <c r="B3">
-        <v>-14.809847510000001</v>
-      </c>
-      <c r="C3">
-        <v>25.406506749999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B3" s="3">
+        <v>-9.7875594299999999</v>
+      </c>
+      <c r="C3" s="3">
+        <v>22.65481363</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>1103</v>
       </c>
-      <c r="B4">
-        <v>-12.212065300000001</v>
-      </c>
-      <c r="C4">
-        <v>26.72558081</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B4" s="3">
+        <v>-8.1845901810000008</v>
+      </c>
+      <c r="C4" s="3">
+        <v>23.132569199999999</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>1106</v>
       </c>
-      <c r="B5">
-        <v>-11.273136450000001</v>
-      </c>
-      <c r="C5">
-        <v>26.082770790000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B5" s="3">
+        <v>-7.3241165060000002</v>
+      </c>
+      <c r="C5" s="3">
+        <v>22.47683507</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>1108</v>
       </c>
-      <c r="B6">
-        <v>-12.133642610000001</v>
-      </c>
-      <c r="C6">
-        <v>26.46333005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B6" s="3">
+        <v>-8.0421437030000007</v>
+      </c>
+      <c r="C6" s="3">
+        <v>23.053237960000001</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>1111</v>
       </c>
-      <c r="B7">
-        <v>-15.59439326</v>
-      </c>
-      <c r="C7">
-        <v>24.82346111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B7" s="3">
+        <v>-10.66660446</v>
+      </c>
+      <c r="C7" s="3">
+        <v>22.67661326</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>1112</v>
       </c>
-      <c r="B8">
-        <v>-15.84533613</v>
-      </c>
-      <c r="C8">
-        <v>24.93510371</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B8" s="3">
+        <v>-10.80196909</v>
+      </c>
+      <c r="C8" s="3">
+        <v>22.63701245</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>1114</v>
       </c>
-      <c r="B9">
-        <v>-15.010131830000001</v>
-      </c>
-      <c r="C9">
-        <v>25.61112425</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B9" s="3">
+        <v>-10.376150989999999</v>
+      </c>
+      <c r="C9" s="3">
+        <v>22.96857134</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>1119</v>
       </c>
-      <c r="B10">
-        <v>-13.221854670000001</v>
-      </c>
-      <c r="C10">
-        <v>26.009994249999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B10" s="3">
+        <v>-8.8163438569999997</v>
+      </c>
+      <c r="C10" s="3">
+        <v>22.801075149999999</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>1120</v>
       </c>
-      <c r="B11">
-        <v>-12.74850528</v>
-      </c>
-      <c r="C11">
-        <v>26.161406289999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B11" s="3">
+        <v>-8.3922878139999995</v>
+      </c>
+      <c r="C11" s="3">
+        <v>22.995259390000001</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>1121</v>
       </c>
-      <c r="B12">
-        <v>-12.769428400000001</v>
-      </c>
-      <c r="C12">
-        <v>26.14142768</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="B12" s="3">
+        <v>-8.3604743639999999</v>
+      </c>
+      <c r="C12" s="3">
+        <v>22.828294469999999</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>1122</v>
       </c>
-      <c r="B13">
-        <v>-14.12266185</v>
-      </c>
-      <c r="C13">
-        <v>25.720439450000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B13" s="3">
+        <v>-9.7851953799999993</v>
+      </c>
+      <c r="C13" s="3">
+        <v>23.0034776</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>1124</v>
       </c>
-      <c r="B14">
-        <v>-12.13238057</v>
-      </c>
-      <c r="C14">
-        <v>26.495110650000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="B14" s="3">
+        <v>-8.0027045819999998</v>
+      </c>
+      <c r="C14" s="3">
+        <v>23.060050180000001</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>1127</v>
       </c>
-      <c r="B15">
-        <v>-12.051733949999999</v>
-      </c>
-      <c r="C15">
-        <v>26.514492560000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="B15" s="3">
+        <v>-8.0286678830000007</v>
+      </c>
+      <c r="C15" s="3">
+        <v>23.04215559</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>1130</v>
       </c>
-      <c r="B16">
-        <v>-13.239649569999999</v>
-      </c>
-      <c r="C16">
-        <v>26.72075766</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="B16" s="3">
+        <v>-8.8682420319999995</v>
+      </c>
+      <c r="C16" s="3">
+        <v>23.42009552</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>1133</v>
       </c>
-      <c r="B17">
-        <v>-13.336577549999999</v>
-      </c>
-      <c r="C17">
-        <v>26.465650369999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="B17" s="3">
+        <v>-9.2626620909999993</v>
+      </c>
+      <c r="C17" s="3">
+        <v>23.21835291</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>1134</v>
       </c>
-      <c r="B18">
-        <v>-15.318892630000001</v>
-      </c>
-      <c r="C18">
-        <v>26.131511249999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="B18" s="3">
+        <v>-10.55259934</v>
+      </c>
+      <c r="C18" s="3">
+        <v>23.179799630000002</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>1135</v>
       </c>
-      <c r="B19">
-        <v>-16.594563610000002</v>
-      </c>
-      <c r="C19">
-        <v>26.15811162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="B19" s="3">
+        <v>-11.38468522</v>
+      </c>
+      <c r="C19" s="3">
+        <v>23.230892099999998</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>1144</v>
       </c>
-      <c r="B20">
-        <v>-11.116026160000001</v>
-      </c>
-      <c r="C20">
-        <v>26.324435080000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="B20" s="3">
+        <v>-7.3851771990000001</v>
+      </c>
+      <c r="C20" s="3">
+        <v>22.742314960000002</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>1145</v>
       </c>
-      <c r="B21">
-        <v>-11.958653010000001</v>
-      </c>
-      <c r="C21">
-        <v>25.979771840000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="B21" s="3">
+        <v>-7.9867219829999998</v>
+      </c>
+      <c r="C21" s="3">
+        <v>22.72768379</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>1146</v>
       </c>
-      <c r="B22">
-        <v>-13.59271298</v>
-      </c>
-      <c r="C22">
-        <v>25.660400039999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="B22" s="3">
+        <v>-9.168247526</v>
+      </c>
+      <c r="C22" s="3">
+        <v>22.685093559999999</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>1149</v>
       </c>
-      <c r="B23">
-        <v>-11.62340519</v>
-      </c>
-      <c r="C23">
-        <v>26.21507231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="B23" s="3">
+        <v>-7.6253261400000003</v>
+      </c>
+      <c r="C23" s="3">
+        <v>22.609914809999999</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>1151</v>
       </c>
-      <c r="B24">
-        <v>-10.99394787</v>
-      </c>
-      <c r="C24">
-        <v>26.016869589999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="B24" s="3">
+        <v>-7.1680865499999999</v>
+      </c>
+      <c r="C24" s="3">
+        <v>22.41902563</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>1160</v>
       </c>
-      <c r="B25">
-        <v>-13.11791332</v>
-      </c>
-      <c r="C25">
-        <v>26.108214329999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="B25" s="3">
+        <v>-8.3149246360000006</v>
+      </c>
+      <c r="C25" s="3">
+        <v>22.852168249999998</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>1505</v>
       </c>
-      <c r="B26">
-        <v>-12.64619997</v>
-      </c>
-      <c r="C26">
-        <v>25.87679468</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="B26" s="3">
+        <v>-8.8049654099999994</v>
+      </c>
+      <c r="C26" s="3">
+        <v>21.504338600000001</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>1506</v>
       </c>
-      <c r="B27">
-        <v>-13.5030562</v>
-      </c>
-      <c r="C27">
-        <v>25.230755120000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="B27" s="3">
+        <v>-8.3557628899999994</v>
+      </c>
+      <c r="C27" s="3">
+        <v>21.515120270000001</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>1507</v>
       </c>
-      <c r="B28">
-        <v>-10.893045040000001</v>
-      </c>
-      <c r="C28">
-        <v>25.269354710000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="B28" s="3">
+        <v>-7.3852181799999999</v>
+      </c>
+      <c r="C28" s="3">
+        <v>21.226705880000001</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>1511</v>
       </c>
-      <c r="B29">
-        <v>-12.353629270000001</v>
-      </c>
-      <c r="C29">
-        <v>25.381089169999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="B29" s="3">
+        <v>-8.8716491239999993</v>
+      </c>
+      <c r="C29" s="3">
+        <v>21.66839109</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>1514</v>
       </c>
-      <c r="B30">
-        <v>-13.370960480000001</v>
-      </c>
-      <c r="C30">
-        <v>25.50348352</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="B30" s="3">
+        <v>-9.6737587519999995</v>
+      </c>
+      <c r="C30" s="3">
+        <v>22.077914310000001</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>1515</v>
       </c>
-      <c r="B31">
-        <v>-10.76875121</v>
-      </c>
-      <c r="C31">
-        <v>24.831601419999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="B31" s="3">
+        <v>-7.6661505999999999</v>
+      </c>
+      <c r="C31" s="3">
+        <v>21.272658759999999</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>1516</v>
       </c>
-      <c r="B32">
-        <v>-10.43143858</v>
-      </c>
-      <c r="C32">
-        <v>24.927535460000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="B32" s="3">
+        <v>-7.4686174789999997</v>
+      </c>
+      <c r="C32" s="3">
+        <v>21.381857199999999</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>1517</v>
       </c>
-      <c r="B33">
-        <v>-11.37378691</v>
-      </c>
-      <c r="C33">
-        <v>25.781852199999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="B33" s="3">
+        <v>-8.2378447050000005</v>
+      </c>
+      <c r="C33" s="3">
+        <v>21.619877129999999</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>1520</v>
       </c>
-      <c r="B34">
-        <v>-14.09936046</v>
-      </c>
-      <c r="C34">
-        <v>25.48494432</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="B34" s="3">
+        <v>-9.9813690059999995</v>
+      </c>
+      <c r="C34" s="3">
+        <v>21.931137540000002</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <v>1525</v>
       </c>
-      <c r="B35">
-        <v>-14.59788659</v>
-      </c>
-      <c r="C35">
-        <v>25.63657268</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="B35" s="3">
+        <v>-10.206655380000001</v>
+      </c>
+      <c r="C35" s="3">
+        <v>22.253484390000001</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <v>1528</v>
       </c>
-      <c r="B36">
-        <v>-12.410026200000001</v>
-      </c>
-      <c r="C36">
-        <v>25.832053259999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="B36" s="3">
+        <v>-8.5069503449999999</v>
+      </c>
+      <c r="C36" s="3">
+        <v>21.854670559999999</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <v>1531</v>
       </c>
-      <c r="B37">
-        <v>-11.15037998</v>
-      </c>
-      <c r="C37">
-        <v>25.958262380000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="B37" s="3">
+        <v>-7.9975427950000002</v>
+      </c>
+      <c r="C37" s="3">
+        <v>21.748677740000002</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
         <v>1532</v>
       </c>
-      <c r="B38">
-        <v>-9.6862085499999999</v>
-      </c>
-      <c r="C38">
-        <v>24.54802527</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="B38" s="3">
+        <v>-6.6354839209999996</v>
+      </c>
+      <c r="C38" s="3">
+        <v>21.094600549999999</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <v>1535</v>
       </c>
-      <c r="B39">
-        <v>-12.698169849999999</v>
-      </c>
-      <c r="C39">
-        <v>24.916370430000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="B39" s="3">
+        <v>-8.4587751450000006</v>
+      </c>
+      <c r="C39" s="3">
+        <v>21.410373270000001</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
         <v>1539</v>
       </c>
-      <c r="B40">
-        <v>-15.38318662</v>
-      </c>
-      <c r="C40">
-        <v>25.68585186</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="B40" s="3">
+        <v>-10.55719934</v>
+      </c>
+      <c r="C40" s="3">
+        <v>22.111861789999999</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
         <v>1547</v>
       </c>
-      <c r="B41">
-        <v>-11.606818390000001</v>
-      </c>
-      <c r="C41">
-        <v>24.218246860000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="B41" s="3">
+        <v>-7.2091438910000001</v>
+      </c>
+      <c r="C41" s="3">
+        <v>20.962444810000001</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
         <v>1554</v>
       </c>
-      <c r="B42">
-        <v>-13.03967894</v>
-      </c>
-      <c r="C42">
-        <v>25.978731530000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="B42" s="3">
+        <v>-9.2273176279999998</v>
+      </c>
+      <c r="C42" s="3">
+        <v>21.794245660000001</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
         <v>1557</v>
       </c>
-      <c r="B43">
-        <v>-13.88619329</v>
-      </c>
-      <c r="C43">
-        <v>25.978215110000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="B43" s="3">
+        <v>-9.5455665679999999</v>
+      </c>
+      <c r="C43" s="3">
+        <v>22.014738529999999</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
         <v>1560</v>
       </c>
-      <c r="B44">
-        <v>-16.231493140000001</v>
-      </c>
-      <c r="C44">
-        <v>26.986686989999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="B44" s="3">
+        <v>-11.486488140000001</v>
+      </c>
+      <c r="C44" s="3">
+        <v>22.727433990000002</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
         <v>1563</v>
       </c>
-      <c r="B45">
-        <v>-18.793004809999999</v>
-      </c>
-      <c r="C45">
-        <v>26.816884649999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="B45" s="3">
+        <v>-13.2123682</v>
+      </c>
+      <c r="C45" s="3">
+        <v>22.510968290000001</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
         <v>1566</v>
       </c>
-      <c r="B46">
-        <v>-19.11688024</v>
-      </c>
-      <c r="C46">
-        <v>27.574874390000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="B46" s="3">
+        <v>-13.475142959999999</v>
+      </c>
+      <c r="C46" s="3">
+        <v>22.534970600000001</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
         <v>1573</v>
       </c>
-      <c r="B47">
-        <v>-12.262700130000001</v>
-      </c>
-      <c r="C47">
-        <v>23.470532349999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="B47" s="3">
+        <v>-8.1463191530000003</v>
+      </c>
+      <c r="C47" s="3">
+        <v>20.258566890000001</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
         <v>1576</v>
       </c>
-      <c r="B48">
-        <v>-14.69605527</v>
-      </c>
-      <c r="C48">
-        <v>25.147057459999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="B48" s="3">
+        <v>-10.442487420000001</v>
+      </c>
+      <c r="C48" s="3">
+        <v>21.23339013</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
         <v>1577</v>
       </c>
-      <c r="B49">
-        <v>-12.585814299999999</v>
-      </c>
-      <c r="C49">
-        <v>25.125373870000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="B49" s="3">
+        <v>-8.6731218160000001</v>
+      </c>
+      <c r="C49" s="3">
+        <v>21.549949380000001</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
         <v>1578</v>
       </c>
-      <c r="B50">
-        <v>-14.70029487</v>
-      </c>
-      <c r="C50">
-        <v>25.16641401</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="B50" s="3">
+        <v>-10.062139820000001</v>
+      </c>
+      <c r="C50" s="3">
+        <v>21.908177030000001</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
         <v>1579</v>
       </c>
-      <c r="B51">
-        <v>-11.926979510000001</v>
-      </c>
-      <c r="C51">
-        <v>24.681446730000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="B51" s="3">
+        <v>-7.4730056319999996</v>
+      </c>
+      <c r="C51" s="3">
+        <v>21.085078490000001</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
         <v>1804</v>
       </c>
-      <c r="B52">
-        <v>-14.75215122</v>
-      </c>
-      <c r="C52">
-        <v>26.054243469999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="B52" s="3">
+        <v>-11.52527686</v>
+      </c>
+      <c r="C52" s="3">
+        <v>22.21039322</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
         <v>1806</v>
       </c>
-      <c r="B53">
-        <v>-19.70879364</v>
-      </c>
-      <c r="C53">
-        <v>26.847086749999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="B53" s="3">
+        <v>-16.84580261</v>
+      </c>
+      <c r="C53" s="3">
+        <v>22.524455620000001</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
         <v>1811</v>
       </c>
-      <c r="B54">
-        <v>-18.994514689999999</v>
-      </c>
-      <c r="C54">
-        <v>27.018358800000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="B54" s="3">
+        <v>-14.46349826</v>
+      </c>
+      <c r="C54" s="3">
+        <v>22.413167080000001</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
         <v>1812</v>
       </c>
-      <c r="B55">
-        <v>-16.885597730000001</v>
-      </c>
-      <c r="C55">
-        <v>26.91786905</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="B55" s="3">
+        <v>-13.183669549999999</v>
+      </c>
+      <c r="C55" s="3">
+        <v>22.462825890000001</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
         <v>1813</v>
       </c>
-      <c r="B56">
-        <v>-15.891599510000001</v>
-      </c>
-      <c r="C56">
-        <v>27.046137009999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="B56" s="3">
+        <v>-11.740582699999999</v>
+      </c>
+      <c r="C56" s="3">
+        <v>22.37709877</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
         <v>1815</v>
       </c>
-      <c r="B57">
-        <v>-15.123506819999999</v>
-      </c>
-      <c r="C57">
-        <v>27.040903199999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="B57" s="3">
+        <v>-11.42821356</v>
+      </c>
+      <c r="C57" s="3">
+        <v>22.195107929999999</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
         <v>1816</v>
       </c>
-      <c r="B58">
-        <v>-15.772834850000001</v>
-      </c>
-      <c r="C58">
-        <v>27.961447719999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="B58" s="3">
+        <v>-11.92529538</v>
+      </c>
+      <c r="C58" s="3">
+        <v>23.336271029999999</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
         <v>1818</v>
       </c>
-      <c r="B59">
-        <v>-14.846730790000001</v>
-      </c>
-      <c r="C59">
-        <v>26.073772519999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="B59" s="3">
+        <v>-10.38856419</v>
+      </c>
+      <c r="C59" s="3">
+        <v>21.933791800000002</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
         <v>1820</v>
       </c>
-      <c r="B60">
-        <v>-14.78238099</v>
-      </c>
-      <c r="C60">
-        <v>27.120181880000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="B60" s="3">
+        <v>-10.544863169999999</v>
+      </c>
+      <c r="C60" s="3">
+        <v>22.33664374</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
         <v>1822</v>
       </c>
-      <c r="B61">
-        <v>-17.227927179999998</v>
-      </c>
-      <c r="C61">
-        <v>25.595639519999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="B61" s="3">
+        <v>-12.92395196</v>
+      </c>
+      <c r="C61" s="3">
+        <v>21.932906920000001</v>
+      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
         <v>1824</v>
       </c>
-      <c r="B62">
-        <v>-19.207702279999999</v>
-      </c>
-      <c r="C62">
-        <v>25.515883890000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="B62" s="3">
+        <v>-15.07253774</v>
+      </c>
+      <c r="C62" s="3">
+        <v>21.987618810000001</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
         <v>1825</v>
       </c>
-      <c r="B63">
-        <v>-24.183186110000001</v>
-      </c>
-      <c r="C63">
-        <v>28.371859839999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="B63" s="3">
+        <v>-19.761143449999999</v>
+      </c>
+      <c r="C63" s="3">
+        <v>23.07625079</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
         <v>1826</v>
       </c>
-      <c r="B64">
-        <v>-27.42621888</v>
-      </c>
-      <c r="C64">
-        <v>27.275362229999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="B64" s="3">
+        <v>-23.133717529999998</v>
+      </c>
+      <c r="C64" s="3">
+        <v>22.155417459999999</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
         <v>1827</v>
       </c>
-      <c r="B65">
-        <v>-14.54651308</v>
-      </c>
-      <c r="C65">
-        <v>25.929738180000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="B65" s="3">
+        <v>-10.443750809999999</v>
+      </c>
+      <c r="C65" s="3">
+        <v>21.798139469999999</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
         <v>1828</v>
       </c>
-      <c r="B66">
-        <v>-14.594997080000001</v>
-      </c>
-      <c r="C66">
-        <v>26.43051758</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="B66" s="3">
+        <v>-11.024549560000001</v>
+      </c>
+      <c r="C66" s="3">
+        <v>21.975349340000001</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
         <v>1832</v>
       </c>
-      <c r="B67">
-        <v>-22.668525979999998</v>
-      </c>
-      <c r="C67">
-        <v>25.63709072</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="B67" s="3">
+        <v>-17.677192980000001</v>
+      </c>
+      <c r="C67" s="3">
+        <v>22.124698939999998</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
         <v>1833</v>
       </c>
-      <c r="B68">
-        <v>-18.673073580000001</v>
-      </c>
-      <c r="C68">
-        <v>26.094032559999999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="B68" s="3">
+        <v>-15.59484844</v>
+      </c>
+      <c r="C68" s="3">
+        <v>22.213011380000001</v>
+      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
         <v>1834</v>
       </c>
-      <c r="B69">
-        <v>-13.4926514</v>
-      </c>
-      <c r="C69">
-        <v>25.098443670000002</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="B69" s="3">
+        <v>-9.7828449279999994</v>
+      </c>
+      <c r="C69" s="3">
+        <v>21.321154719999999</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
         <v>1835</v>
       </c>
-      <c r="B70">
-        <v>-13.4926514</v>
-      </c>
-      <c r="C70">
-        <v>25.098443670000002</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="B70" s="3">
+        <v>-9.7828449279999994</v>
+      </c>
+      <c r="C70" s="3">
+        <v>21.321154719999999</v>
+      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
         <v>1836</v>
       </c>
-      <c r="B71">
-        <v>-12.77702627</v>
-      </c>
-      <c r="C71">
-        <v>24.731118009999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="B71" s="3">
+        <v>-9.5705172879999996</v>
+      </c>
+      <c r="C71" s="3">
+        <v>21.097292490000001</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
         <v>1837</v>
       </c>
-      <c r="B72">
-        <v>-13.55917022</v>
-      </c>
-      <c r="C72">
-        <v>26.450412400000001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="B72" s="3">
+        <v>-10.87532637</v>
+      </c>
+      <c r="C72" s="3">
+        <v>22.562385370000001</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
         <v>1838</v>
       </c>
-      <c r="B73">
-        <v>-13.19002543</v>
-      </c>
-      <c r="C73">
-        <v>25.76808754</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="B73" s="3">
+        <v>-10.643680760000001</v>
+      </c>
+      <c r="C73" s="3">
+        <v>21.938788240000001</v>
+      </c>
+      <c r="G73" s="2"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
         <v>1839</v>
       </c>
-      <c r="B74">
-        <v>-15.98007702</v>
-      </c>
-      <c r="C74">
-        <v>26.539654779999999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="B74" s="3">
+        <v>-13.64707201</v>
+      </c>
+      <c r="C74" s="3">
+        <v>22.603158400000002</v>
+      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
         <v>1840</v>
       </c>
-      <c r="B75">
-        <v>-18.855226720000001</v>
-      </c>
-      <c r="C75">
-        <v>26.33561211</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="B75" s="3">
+        <v>-16.45783612</v>
+      </c>
+      <c r="C75" s="3">
+        <v>22.211900480000001</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
         <v>1841</v>
       </c>
-      <c r="B76">
-        <v>-17.651494710000001</v>
-      </c>
-      <c r="C76">
-        <v>27.055871450000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="B76" s="3">
+        <v>-15.33553961</v>
+      </c>
+      <c r="C76" s="3">
+        <v>22.674596139999998</v>
+      </c>
+      <c r="G76" s="2"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
         <v>1845</v>
       </c>
-      <c r="B77">
-        <v>-17.168364650000001</v>
-      </c>
-      <c r="C77">
-        <v>26.727697509999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="B77" s="3">
+        <v>-14.835934590000001</v>
+      </c>
+      <c r="C77" s="3">
+        <v>22.37101608</v>
+      </c>
+      <c r="G77" s="2"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
         <v>1848</v>
       </c>
-      <c r="B78">
-        <v>-14.5048125</v>
-      </c>
-      <c r="C78">
-        <v>26.422491870000002</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="B78" s="3">
+        <v>-11.18727578</v>
+      </c>
+      <c r="C78" s="3">
+        <v>22.395476380000002</v>
+      </c>
+      <c r="G78" s="2"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
         <v>1851</v>
       </c>
-      <c r="B79">
-        <v>-14.46060641</v>
-      </c>
-      <c r="C79">
-        <v>26.85320222</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="B79" s="3">
+        <v>-11.04318621</v>
+      </c>
+      <c r="C79" s="3">
+        <v>22.38193042</v>
+      </c>
+      <c r="G79" s="2"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
         <v>1853</v>
       </c>
-      <c r="B80">
-        <v>-16.995049340000001</v>
-      </c>
-      <c r="C80">
-        <v>25.026459370000001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="B80" s="3">
+        <v>-14.11556837</v>
+      </c>
+      <c r="C80" s="3">
+        <v>21.27659358</v>
+      </c>
+      <c r="G80" s="2"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
         <v>1856</v>
       </c>
-      <c r="B81">
-        <v>-12.230992130000001</v>
-      </c>
-      <c r="C81">
-        <v>23.68501302</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="B81" s="3">
+        <v>-7.6835673519999999</v>
+      </c>
+      <c r="C81" s="3">
+        <v>19.65045014</v>
+      </c>
+      <c r="G81" s="2"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
         <v>1857</v>
       </c>
-      <c r="B82">
-        <v>-12.230992130000001</v>
-      </c>
-      <c r="C82">
-        <v>23.68501302</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="B82" s="3">
+        <v>-7.6835673519999999</v>
+      </c>
+      <c r="C82" s="3">
+        <v>19.65045014</v>
+      </c>
+      <c r="G82" s="2"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
         <v>1859</v>
       </c>
-      <c r="B83">
-        <v>-16.387581430000001</v>
-      </c>
-      <c r="C83">
-        <v>24.782134769999999</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="B83" s="3">
+        <v>-12.60265076</v>
+      </c>
+      <c r="C83" s="3">
+        <v>21.226779199999999</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
         <v>1860</v>
       </c>
-      <c r="B84">
-        <v>-12.24347221</v>
-      </c>
-      <c r="C84">
-        <v>25.407322659999998</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="B84" s="3">
+        <v>-8.8988795280000001</v>
+      </c>
+      <c r="C84" s="3">
+        <v>21.412306149999999</v>
+      </c>
+      <c r="G84" s="2"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
         <v>1865</v>
       </c>
-      <c r="B85">
-        <v>-11.638228249999999</v>
-      </c>
-      <c r="C85">
-        <v>24.541351349999999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="B85" s="3">
+        <v>-8.6590735199999997</v>
+      </c>
+      <c r="C85" s="3">
+        <v>21.454842559999999</v>
+      </c>
+      <c r="G85" s="2"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
         <v>1866</v>
       </c>
-      <c r="B86">
-        <v>-12.090022980000001</v>
-      </c>
-      <c r="C86">
-        <v>24.570805610000001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="B86" s="3">
+        <v>-8.859440545</v>
+      </c>
+      <c r="C86" s="3">
+        <v>21.22584342</v>
+      </c>
+      <c r="G86" s="2"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
         <v>1867</v>
       </c>
-      <c r="B87">
-        <v>-12.479288179999999</v>
-      </c>
-      <c r="C87">
-        <v>24.994544210000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="B87" s="3">
+        <v>-9.5160921500000004</v>
+      </c>
+      <c r="C87" s="3">
+        <v>21.296539190000001</v>
+      </c>
+      <c r="G87" s="2"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
         <v>1868</v>
       </c>
-      <c r="B88">
-        <v>-12.77949405</v>
-      </c>
-      <c r="C88">
-        <v>24.482960850000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="B88" s="3">
+        <v>-9.8782415280000002</v>
+      </c>
+      <c r="C88" s="3">
+        <v>20.4112598</v>
+      </c>
+      <c r="G88" s="2"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
         <v>1870</v>
       </c>
-      <c r="B89">
-        <v>-13.09692386</v>
-      </c>
-      <c r="C89">
-        <v>26.303063099999999</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="B89" s="3">
+        <v>-9.9960952499999998</v>
+      </c>
+      <c r="C89" s="3">
+        <v>21.682030529999999</v>
+      </c>
+      <c r="G89" s="2"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
         <v>1871</v>
       </c>
-      <c r="B90">
-        <v>-13.98408605</v>
-      </c>
-      <c r="C90">
-        <v>23.340496349999999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="B90" s="3">
+        <v>-10.74654604</v>
+      </c>
+      <c r="C90" s="3">
+        <v>19.325355389999999</v>
+      </c>
+      <c r="G90" s="2"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
         <v>1874</v>
       </c>
-      <c r="B91">
-        <v>-12.38893826</v>
-      </c>
-      <c r="C91">
-        <v>25.08959961</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="B91" s="3">
+        <v>-8.7133408419999991</v>
+      </c>
+      <c r="C91" s="3">
+        <v>20.927684549999999</v>
+      </c>
+      <c r="G91" s="2"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
         <v>1875</v>
       </c>
-      <c r="B92">
-        <v>-14.24800727</v>
-      </c>
-      <c r="C92">
-        <v>27.614254129999999</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="B92" s="3">
+        <v>-11.839460519999999</v>
+      </c>
+      <c r="C92" s="3">
+        <v>23.207709000000001</v>
+      </c>
+      <c r="G92" s="2"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
         <v>3001</v>
       </c>
-      <c r="B93">
-        <v>-22.452287770000002</v>
-      </c>
-      <c r="C93">
-        <v>26.933730319999999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="B93" s="3">
+        <v>-15.505685679999999</v>
+      </c>
+      <c r="C93" s="3">
+        <v>23.881159759999999</v>
+      </c>
+      <c r="G93" s="2"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
         <v>3002</v>
       </c>
-      <c r="B94">
-        <v>-23.331612010000001</v>
-      </c>
-      <c r="C94">
-        <v>27.22958611</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="B94" s="3">
+        <v>-16.443496589999999</v>
+      </c>
+      <c r="C94" s="3">
+        <v>24.10203344</v>
+      </c>
+      <c r="G94" s="2"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
         <v>3003</v>
       </c>
-      <c r="B95">
-        <v>-25.06447326</v>
-      </c>
-      <c r="C95">
-        <v>27.42374895</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="B95" s="3">
+        <v>-16.967350410000002</v>
+      </c>
+      <c r="C95" s="3">
+        <v>24.06179522</v>
+      </c>
+      <c r="G95" s="2"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
         <v>3004</v>
       </c>
-      <c r="B96">
-        <v>-22.270984909999999</v>
-      </c>
-      <c r="C96">
-        <v>26.956758539999999</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="B96" s="3">
+        <v>-15.25196302</v>
+      </c>
+      <c r="C96" s="3">
+        <v>24.01333327</v>
+      </c>
+      <c r="G96" s="2"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
         <v>3005</v>
       </c>
-      <c r="B97">
-        <v>-24.212706699999998</v>
-      </c>
-      <c r="C97">
-        <v>27.322960200000001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="B97" s="3">
+        <v>-17.066638739999998</v>
+      </c>
+      <c r="C97" s="3">
+        <v>24.329953920000001</v>
+      </c>
+      <c r="G97" s="2"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
         <v>3006</v>
       </c>
-      <c r="B98">
-        <v>-26.745706980000001</v>
-      </c>
-      <c r="C98">
-        <v>27.350375369999998</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="B98" s="3">
+        <v>-19.088345019999998</v>
+      </c>
+      <c r="C98" s="3">
+        <v>23.896926189999999</v>
+      </c>
+      <c r="G98" s="2"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
         <v>3007</v>
       </c>
-      <c r="B99">
-        <v>-26.449152869999999</v>
-      </c>
-      <c r="C99">
-        <v>28.083852579999999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="B99" s="3">
+        <v>-19.17645289</v>
+      </c>
+      <c r="C99" s="3">
+        <v>24.538838299999998</v>
+      </c>
+      <c r="G99" s="2"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
         <v>3011</v>
       </c>
-      <c r="B100">
-        <v>-19.657489600000002</v>
-      </c>
-      <c r="C100">
-        <v>27.005123829999999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="B100" s="3">
+        <v>-13.75113563</v>
+      </c>
+      <c r="C100" s="3">
+        <v>23.92661421</v>
+      </c>
+      <c r="G100" s="2"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
         <v>3012</v>
       </c>
-      <c r="B101">
-        <v>-25.94702225</v>
-      </c>
-      <c r="C101">
-        <v>26.73965711</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="B101" s="3">
+        <v>-18.180314970000001</v>
+      </c>
+      <c r="C101" s="3">
+        <v>23.602100700000001</v>
+      </c>
+      <c r="G101" s="2"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
         <v>3013</v>
       </c>
-      <c r="B102">
-        <v>-29.05741652</v>
-      </c>
-      <c r="C102">
-        <v>26.354282439999999</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="B102" s="3">
+        <v>-20.224413590000001</v>
+      </c>
+      <c r="C102" s="3">
+        <v>23.496112660000001</v>
+      </c>
+      <c r="G102" s="2"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
         <v>3014</v>
       </c>
-      <c r="B103">
-        <v>-27.270327120000001</v>
-      </c>
-      <c r="C103">
-        <v>26.713057299999999</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="B103" s="3">
+        <v>-19.02611284</v>
+      </c>
+      <c r="C103" s="3">
+        <v>23.542942069999999</v>
+      </c>
+      <c r="G103" s="2"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
         <v>3015</v>
       </c>
-      <c r="B104">
-        <v>-26.79957911</v>
-      </c>
-      <c r="C104">
-        <v>27.017926800000001</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="B104" s="3">
+        <v>-18.730107029999999</v>
+      </c>
+      <c r="C104" s="3">
+        <v>23.747617720000001</v>
+      </c>
+      <c r="G104" s="2"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
         <v>3016</v>
       </c>
-      <c r="B105">
-        <v>-27.00858234</v>
-      </c>
-      <c r="C105">
-        <v>27.082606330000001</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="B105" s="3">
+        <v>-18.919311059999998</v>
+      </c>
+      <c r="C105" s="3">
+        <v>23.7011112</v>
+      </c>
+      <c r="G105" s="2"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
         <v>3017</v>
       </c>
-      <c r="B106">
-        <v>-24.500832379999999</v>
-      </c>
-      <c r="C106">
-        <v>27.615866019999999</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="B106" s="3">
+        <v>-16.958144799999999</v>
+      </c>
+      <c r="C106" s="3">
+        <v>24.24034675</v>
+      </c>
+      <c r="G106" s="2"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
         <v>3018</v>
       </c>
-      <c r="B107">
-        <v>-24.89989121</v>
-      </c>
-      <c r="C107">
-        <v>27.644090210000002</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="B107" s="3">
+        <v>-17.373242789999999</v>
+      </c>
+      <c r="C107" s="3">
+        <v>24.253827179999998</v>
+      </c>
+      <c r="G107" s="2"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
         <v>3019</v>
       </c>
-      <c r="B108">
-        <v>-24.363323650000002</v>
-      </c>
-      <c r="C108">
-        <v>27.611074479999999</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="B108" s="3">
+        <v>-17.455969570000001</v>
+      </c>
+      <c r="C108" s="3">
+        <v>24.243427499999999</v>
+      </c>
+      <c r="G108" s="2"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
         <v>3020</v>
       </c>
-      <c r="B109">
-        <v>-24.833366000000002</v>
-      </c>
-      <c r="C109">
-        <v>27.0937783</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="B109" s="3">
+        <v>-17.889421120000002</v>
+      </c>
+      <c r="C109" s="3">
+        <v>23.881174519999998</v>
+      </c>
+      <c r="G109" s="2"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
         <v>3021</v>
       </c>
-      <c r="B110">
-        <v>-24.638672700000001</v>
-      </c>
-      <c r="C110">
-        <v>27.50541965</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="B110" s="3">
+        <v>-17.750802820000001</v>
+      </c>
+      <c r="C110" s="3">
+        <v>24.241841610000002</v>
+      </c>
+      <c r="G110" s="2"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
         <v>3022</v>
       </c>
-      <c r="B111">
-        <v>-22.62993848</v>
-      </c>
-      <c r="C111">
-        <v>27.322390970000001</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="B111" s="3">
+        <v>-15.687492430000001</v>
+      </c>
+      <c r="C111" s="3">
+        <v>24.176601120000001</v>
+      </c>
+      <c r="G111" s="2"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
         <v>3023</v>
       </c>
-      <c r="B112">
-        <v>-23.929761989999999</v>
-      </c>
-      <c r="C112">
-        <v>27.637143049999999</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="B112" s="3">
+        <v>-16.910123070000001</v>
+      </c>
+      <c r="C112" s="3">
+        <v>24.524515770000001</v>
+      </c>
+      <c r="G112" s="2"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
         <v>3024</v>
       </c>
-      <c r="B113">
-        <v>-23.974619830000002</v>
-      </c>
-      <c r="C113">
-        <v>28.14157509</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="B113" s="3">
+        <v>-17.16505046</v>
+      </c>
+      <c r="C113" s="3">
+        <v>24.829592049999999</v>
+      </c>
+      <c r="G113" s="2"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
         <v>3025</v>
       </c>
-      <c r="B114">
-        <v>-24.517219099999998</v>
-      </c>
-      <c r="C114">
-        <v>27.820227559999999</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="B114" s="3">
+        <v>-17.38148039</v>
+      </c>
+      <c r="C114" s="3">
+        <v>24.433349459999999</v>
+      </c>
+      <c r="G114" s="2"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
         <v>3026</v>
       </c>
-      <c r="B115">
-        <v>-30.927186039999999</v>
-      </c>
-      <c r="C115">
-        <v>26.571289400000001</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="B115" s="3">
+        <v>-21.821284439999999</v>
+      </c>
+      <c r="C115" s="3">
+        <v>23.339462900000001</v>
+      </c>
+      <c r="G115" s="2"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
         <v>3027</v>
       </c>
-      <c r="B116">
-        <v>-26.825625380000002</v>
-      </c>
-      <c r="C116">
-        <v>27.00042397</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117">
+      <c r="B116" s="3">
+        <v>-19.706547629999999</v>
+      </c>
+      <c r="C116" s="3">
+        <v>23.64134155</v>
+      </c>
+      <c r="G116" s="2"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
         <v>3028</v>
       </c>
-      <c r="B117">
-        <v>-27.56317769</v>
-      </c>
-      <c r="C117">
-        <v>26.732090169999999</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="B117" s="3">
+        <v>-19.554778219999999</v>
+      </c>
+      <c r="C117" s="3">
+        <v>23.39609372</v>
+      </c>
+      <c r="G117" s="2"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
         <v>3029</v>
       </c>
-      <c r="B118">
-        <v>-26.32875902</v>
-      </c>
-      <c r="C118">
-        <v>27.222807809999999</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="B118" s="3">
+        <v>-19.129909049999998</v>
+      </c>
+      <c r="C118" s="3">
+        <v>23.791052910000001</v>
+      </c>
+      <c r="G118" s="2"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
         <v>3030</v>
       </c>
-      <c r="B119">
-        <v>-26.782317540000001</v>
-      </c>
-      <c r="C119">
-        <v>27.590496259999998</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="B119" s="3">
+        <v>-19.359794489999999</v>
+      </c>
+      <c r="C119" s="3">
+        <v>24.072669210000001</v>
+      </c>
+      <c r="G119" s="2"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
         <v>3031</v>
       </c>
-      <c r="B120">
-        <v>-26.243646290000001</v>
-      </c>
-      <c r="C120">
-        <v>27.13000087</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121">
+      <c r="B120" s="3">
+        <v>-19.392655810000001</v>
+      </c>
+      <c r="C120" s="3">
+        <v>23.646533909999999</v>
+      </c>
+      <c r="G120" s="2"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
         <v>3032</v>
       </c>
-      <c r="B121">
-        <v>-27.46590097</v>
-      </c>
-      <c r="C121">
-        <v>27.307519769999999</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="B121" s="3">
+        <v>-20.17261821</v>
+      </c>
+      <c r="C121" s="3">
+        <v>23.824106409999999</v>
+      </c>
+      <c r="G121" s="2"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
         <v>3033</v>
       </c>
-      <c r="B122">
-        <v>-28.557224819999998</v>
-      </c>
-      <c r="C122">
-        <v>27.212992880000002</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="B122" s="3">
+        <v>-20.794489500000001</v>
+      </c>
+      <c r="C122" s="3">
+        <v>23.4565275</v>
+      </c>
+      <c r="G122" s="2"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
         <v>3034</v>
       </c>
-      <c r="B123">
-        <v>-30.60587112</v>
-      </c>
-      <c r="C123">
-        <v>27.264827619999998</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="B123" s="3">
+        <v>-22.007241879999999</v>
+      </c>
+      <c r="C123" s="3">
+        <v>23.608926109999999</v>
+      </c>
+      <c r="G123" s="2"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
         <v>3035</v>
       </c>
-      <c r="B124">
-        <v>-30.249794049999998</v>
-      </c>
-      <c r="C124">
-        <v>27.674679990000001</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="B124" s="3">
+        <v>-21.74100318</v>
+      </c>
+      <c r="C124" s="3">
+        <v>23.727889659999999</v>
+      </c>
+      <c r="G124" s="2"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
         <v>3036</v>
       </c>
-      <c r="B125">
-        <v>-28.602359740000001</v>
-      </c>
-      <c r="C125">
-        <v>27.507177209999998</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="B125" s="3">
+        <v>-20.569947509999999</v>
+      </c>
+      <c r="C125" s="3">
+        <v>23.615925919999999</v>
+      </c>
+      <c r="G125" s="2"/>
+      <c r="H125" s="3"/>
+      <c r="I125" s="3"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
         <v>3037</v>
       </c>
-      <c r="B126">
-        <v>-29.25678109</v>
-      </c>
-      <c r="C126">
-        <v>27.495245199999999</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="B126" s="3">
+        <v>-21.440306369999998</v>
+      </c>
+      <c r="C126" s="3">
+        <v>23.617583310000001</v>
+      </c>
+      <c r="G126" s="2"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
         <v>3038</v>
       </c>
-      <c r="B127">
-        <v>-25.146307140000001</v>
-      </c>
-      <c r="C127">
-        <v>28.453021530000001</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="B127" s="3">
+        <v>-18.306078830000001</v>
+      </c>
+      <c r="C127" s="3">
+        <v>24.93126208</v>
+      </c>
+      <c r="G127" s="2"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
         <v>3039</v>
       </c>
-      <c r="B128">
-        <v>-30.755684930000001</v>
-      </c>
-      <c r="C128">
-        <v>27.509561609999999</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="B128" s="3">
+        <v>-22.231475320000001</v>
+      </c>
+      <c r="C128" s="3">
+        <v>23.815408590000001</v>
+      </c>
+      <c r="G128" s="2"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
         <v>3040</v>
       </c>
-      <c r="B129">
-        <v>-31.589885110000001</v>
-      </c>
-      <c r="C129">
-        <v>26.688165080000001</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="B129" s="3">
+        <v>-22.813520669999999</v>
+      </c>
+      <c r="C129" s="3">
+        <v>23.460097770000001</v>
+      </c>
+      <c r="G129" s="2"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
         <v>3041</v>
       </c>
-      <c r="B130">
-        <v>-32.315637299999999</v>
-      </c>
-      <c r="C130">
-        <v>26.46364037</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131">
+      <c r="B130" s="3">
+        <v>-23.50841716</v>
+      </c>
+      <c r="C130" s="3">
+        <v>23.12194749</v>
+      </c>
+      <c r="G130" s="2"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
         <v>3042</v>
       </c>
-      <c r="B131">
-        <v>-35.323420710000001</v>
-      </c>
-      <c r="C131">
-        <v>24.267678029999999</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="B131" s="3">
+        <v>-24.41398998</v>
+      </c>
+      <c r="C131" s="3">
+        <v>20.93729493</v>
+      </c>
+      <c r="G131" s="2"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
         <v>3043</v>
       </c>
-      <c r="B132">
-        <v>-32.794723619999999</v>
-      </c>
-      <c r="C132">
-        <v>24.82563261</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133">
+      <c r="B132" s="3">
+        <v>-23.197619599999999</v>
+      </c>
+      <c r="C132" s="3">
+        <v>21.66419557</v>
+      </c>
+      <c r="G132" s="2"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="3"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
         <v>3044</v>
       </c>
-      <c r="B133">
-        <v>-32.226782389999997</v>
-      </c>
-      <c r="C133">
-        <v>24.240186739999999</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134">
+      <c r="B133" s="3">
+        <v>-22.430184220000001</v>
+      </c>
+      <c r="C133" s="3">
+        <v>21.05769192</v>
+      </c>
+      <c r="G133" s="2"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
         <v>3045</v>
       </c>
-      <c r="B134">
-        <v>-27.395785830000001</v>
-      </c>
-      <c r="C134">
-        <v>27.903472149999999</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135">
+      <c r="B134" s="3">
+        <v>-19.67129439</v>
+      </c>
+      <c r="C134" s="3">
+        <v>24.465813829999998</v>
+      </c>
+      <c r="G134" s="2"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
         <v>3046</v>
       </c>
-      <c r="B135">
-        <v>-28.687999099999999</v>
-      </c>
-      <c r="C135">
-        <v>27.55196239</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136">
+      <c r="B135" s="3">
+        <v>-20.522370219999999</v>
+      </c>
+      <c r="C135" s="3">
+        <v>24.129042429999998</v>
+      </c>
+      <c r="G135" s="2"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
         <v>3047</v>
       </c>
-      <c r="B136">
-        <v>-25.55346535</v>
-      </c>
-      <c r="C136">
-        <v>28.22366353</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137">
+      <c r="B136" s="3">
+        <v>-18.540523990000001</v>
+      </c>
+      <c r="C136" s="3">
+        <v>24.686244890000001</v>
+      </c>
+      <c r="G136" s="2"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="3"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
         <v>3048</v>
       </c>
-      <c r="B137">
-        <v>-25.006438500000002</v>
-      </c>
-      <c r="C137">
-        <v>27.19956578</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138">
+      <c r="B137" s="3">
+        <v>-17.8910652</v>
+      </c>
+      <c r="C137" s="3">
+        <v>24.263198280000001</v>
+      </c>
+      <c r="G137" s="2"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
         <v>3049</v>
       </c>
-      <c r="B138">
-        <v>-24.058829379999999</v>
-      </c>
-      <c r="C138">
-        <v>27.776587800000001</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139">
+      <c r="B138" s="3">
+        <v>-17.078012959999999</v>
+      </c>
+      <c r="C138" s="3">
+        <v>24.486543829999999</v>
+      </c>
+      <c r="G138" s="2"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
         <v>3050</v>
       </c>
-      <c r="B139">
-        <v>-27.43754856</v>
-      </c>
-      <c r="C139">
-        <v>27.111997179999999</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="B139" s="3">
+        <v>-19.76566493</v>
+      </c>
+      <c r="C139" s="3">
+        <v>23.775413660000002</v>
+      </c>
+      <c r="G139" s="2"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
         <v>3051</v>
       </c>
-      <c r="B140">
-        <v>-28.630666699999999</v>
-      </c>
-      <c r="C140">
-        <v>27.080126450000002</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141">
+      <c r="B140" s="3">
+        <v>-20.605671000000001</v>
+      </c>
+      <c r="C140" s="3">
+        <v>23.53105008</v>
+      </c>
+      <c r="G140" s="2"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
         <v>3052</v>
       </c>
-      <c r="B141">
-        <v>-30.02049864</v>
-      </c>
-      <c r="C141">
-        <v>25.584491379999999</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="B141" s="3">
+        <v>-21.907548269999999</v>
+      </c>
+      <c r="C141" s="3">
+        <v>22.195778799999999</v>
+      </c>
+      <c r="G141" s="2"/>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
         <v>3053</v>
       </c>
-      <c r="B142">
-        <v>-26.727833520000001</v>
-      </c>
-      <c r="C142">
-        <v>28.16259501</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143">
+      <c r="B142" s="3">
+        <v>-19.782188290000001</v>
+      </c>
+      <c r="C142" s="3">
+        <v>24.306580270000001</v>
+      </c>
+      <c r="G142" s="2"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
         <v>3054</v>
       </c>
-      <c r="B143">
-        <v>-27.86395323</v>
-      </c>
-      <c r="C143">
-        <v>26.792073859999999</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144">
+      <c r="B143" s="3">
+        <v>-19.982997269999998</v>
+      </c>
+      <c r="C143" s="3">
+        <v>23.22372361</v>
+      </c>
+      <c r="G143" s="2"/>
+      <c r="H143" s="3"/>
+      <c r="I143" s="3"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
         <v>3401</v>
       </c>
-      <c r="B144">
-        <v>-31.772186489999999</v>
-      </c>
-      <c r="C144">
-        <v>27.539003430000001</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="B144" s="3">
+        <v>-23.461779480000001</v>
+      </c>
+      <c r="C144" s="3">
+        <v>23.684092570000001</v>
+      </c>
+      <c r="G144" s="2"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
         <v>3403</v>
       </c>
-      <c r="B145">
-        <v>-30.510619290000001</v>
-      </c>
-      <c r="C145">
-        <v>27.738813109999999</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146">
+      <c r="B145" s="3">
+        <v>-22.312898759999999</v>
+      </c>
+      <c r="C145" s="3">
+        <v>23.873963929999999</v>
+      </c>
+      <c r="G145" s="2"/>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
         <v>3405</v>
       </c>
-      <c r="B146">
-        <v>-32.129188380000002</v>
-      </c>
-      <c r="C146">
-        <v>27.202335210000001</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147">
+      <c r="B146" s="3">
+        <v>-22.490865660000001</v>
+      </c>
+      <c r="C146" s="3">
+        <v>23.414515470000001</v>
+      </c>
+      <c r="G146" s="2"/>
+      <c r="H146" s="3"/>
+      <c r="I146" s="3"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
         <v>3407</v>
       </c>
-      <c r="B147">
-        <v>-30.08168775</v>
-      </c>
-      <c r="C147">
-        <v>27.57144959</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148">
+      <c r="B147" s="3">
+        <v>-21.240012199999999</v>
+      </c>
+      <c r="C147" s="3">
+        <v>23.81705981</v>
+      </c>
+      <c r="G147" s="2"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="3"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
         <v>3411</v>
       </c>
-      <c r="B148">
-        <v>-30.667051399999998</v>
-      </c>
-      <c r="C148">
-        <v>27.630169859999999</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149">
+      <c r="B148" s="3">
+        <v>-22.19404639</v>
+      </c>
+      <c r="C148" s="3">
+        <v>23.82181521</v>
+      </c>
+      <c r="G148" s="2"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
         <v>3412</v>
       </c>
-      <c r="B149">
-        <v>-32.002059610000003</v>
-      </c>
-      <c r="C149">
-        <v>27.817775059999999</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150">
+      <c r="B149" s="3">
+        <v>-23.706346050000001</v>
+      </c>
+      <c r="C149" s="3">
+        <v>23.855201520000001</v>
+      </c>
+      <c r="G149" s="2"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
         <v>3413</v>
       </c>
-      <c r="B150">
-        <v>-31.026064170000001</v>
-      </c>
-      <c r="C150">
-        <v>27.79532189</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151">
+      <c r="B150" s="3">
+        <v>-22.616366660000001</v>
+      </c>
+      <c r="C150" s="3">
+        <v>23.738324800000001</v>
+      </c>
+      <c r="G150" s="2"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="3"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
         <v>3414</v>
       </c>
-      <c r="B151">
-        <v>-30.879886979999998</v>
-      </c>
-      <c r="C151">
-        <v>27.5986406</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152">
+      <c r="B151" s="3">
+        <v>-22.642765449999999</v>
+      </c>
+      <c r="C151" s="3">
+        <v>23.760645910000001</v>
+      </c>
+      <c r="G151" s="2"/>
+      <c r="H151" s="3"/>
+      <c r="I151" s="3"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
         <v>3415</v>
       </c>
-      <c r="B152">
-        <v>-31.305751040000001</v>
-      </c>
-      <c r="C152">
-        <v>27.337479739999999</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153">
+      <c r="B152" s="3">
+        <v>-22.988002739999999</v>
+      </c>
+      <c r="C152" s="3">
+        <v>23.712352710000001</v>
+      </c>
+      <c r="G152" s="2"/>
+      <c r="H152" s="3"/>
+      <c r="I152" s="3"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
         <v>3416</v>
       </c>
-      <c r="B153">
-        <v>-31.943810939999999</v>
-      </c>
-      <c r="C153">
-        <v>26.87535227</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154">
+      <c r="B153" s="3">
+        <v>-23.16552849</v>
+      </c>
+      <c r="C153" s="3">
+        <v>23.394372929999999</v>
+      </c>
+      <c r="G153" s="2"/>
+      <c r="H153" s="3"/>
+      <c r="I153" s="3"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
         <v>3417</v>
       </c>
-      <c r="B154">
-        <v>-31.659295790000002</v>
-      </c>
-      <c r="C154">
-        <v>27.49539102</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155">
+      <c r="B154" s="3">
+        <v>-24.088095500000001</v>
+      </c>
+      <c r="C154" s="3">
+        <v>23.953974179999999</v>
+      </c>
+      <c r="G154" s="2"/>
+      <c r="H154" s="3"/>
+      <c r="I154" s="3"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
         <v>3418</v>
       </c>
-      <c r="B155">
-        <v>-32.747196359999997</v>
-      </c>
-      <c r="C155">
-        <v>27.697366800000001</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156">
+      <c r="B155" s="3">
+        <v>-24.687145820000001</v>
+      </c>
+      <c r="C155" s="3">
+        <v>23.97836341</v>
+      </c>
+      <c r="G155" s="2"/>
+      <c r="H155" s="3"/>
+      <c r="I155" s="3"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
         <v>3419</v>
       </c>
-      <c r="B156">
-        <v>-32.643937080000001</v>
-      </c>
-      <c r="C156">
-        <v>27.843290469999999</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157">
+      <c r="B156" s="3">
+        <v>-24.495912780000001</v>
+      </c>
+      <c r="C156" s="3">
+        <v>24.003346499999999</v>
+      </c>
+      <c r="G156" s="2"/>
+      <c r="H156" s="3"/>
+      <c r="I156" s="3"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
         <v>3420</v>
       </c>
-      <c r="B157">
-        <v>-33.489011820000002</v>
-      </c>
-      <c r="C157">
-        <v>27.8648384</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158">
+      <c r="B157" s="3">
+        <v>-24.640077210000001</v>
+      </c>
+      <c r="C157" s="3">
+        <v>23.777240169999999</v>
+      </c>
+      <c r="G157" s="2"/>
+      <c r="H157" s="3"/>
+      <c r="I157" s="3"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
         <v>3421</v>
       </c>
-      <c r="B158">
-        <v>-33.97151641</v>
-      </c>
-      <c r="C158">
-        <v>26.393350380000001</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159">
+      <c r="B158" s="3">
+        <v>-27.791950750000002</v>
+      </c>
+      <c r="C158" s="3">
+        <v>22.516230289999999</v>
+      </c>
+      <c r="G158" s="2"/>
+      <c r="H158" s="3"/>
+      <c r="I158" s="3"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
         <v>3422</v>
       </c>
-      <c r="B159">
-        <v>-33.43976584</v>
-      </c>
-      <c r="C159">
-        <v>26.888564370000001</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160">
+      <c r="B159" s="3">
+        <v>-25.674479860000002</v>
+      </c>
+      <c r="C159" s="3">
+        <v>23.202059899999998</v>
+      </c>
+      <c r="G159" s="2"/>
+      <c r="H159" s="3"/>
+      <c r="I159" s="3"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
         <v>3423</v>
       </c>
-      <c r="B160">
-        <v>-35.515370779999998</v>
-      </c>
-      <c r="C160">
-        <v>26.456361149999999</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161">
+      <c r="B160" s="3">
+        <v>-26.667846040000001</v>
+      </c>
+      <c r="C160" s="3">
+        <v>22.273064609999999</v>
+      </c>
+      <c r="G160" s="2"/>
+      <c r="H160" s="3"/>
+      <c r="I160" s="3"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
         <v>3424</v>
       </c>
-      <c r="B161">
-        <v>-37.97253748</v>
-      </c>
-      <c r="C161">
-        <v>26.372237040000002</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162">
+      <c r="B161" s="3">
+        <v>-27.50648125</v>
+      </c>
+      <c r="C161" s="3">
+        <v>21.911737410000001</v>
+      </c>
+      <c r="G161" s="2"/>
+      <c r="H161" s="3"/>
+      <c r="I161" s="3"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
         <v>3425</v>
       </c>
-      <c r="B162">
-        <v>-38.432837169999999</v>
-      </c>
-      <c r="C162">
-        <v>25.107048460000001</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163">
+      <c r="B162" s="3">
+        <v>-28.945697580000001</v>
+      </c>
+      <c r="C162" s="3">
+        <v>21.086437029999999</v>
+      </c>
+      <c r="G162" s="2"/>
+      <c r="H162" s="3"/>
+      <c r="I162" s="3"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
         <v>3426</v>
       </c>
-      <c r="B163">
-        <v>-39.115769819999997</v>
-      </c>
-      <c r="C163">
-        <v>24.604177249999999</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164">
+      <c r="B163" s="3">
+        <v>-29.298509320000001</v>
+      </c>
+      <c r="C163" s="3">
+        <v>20.525004450000001</v>
+      </c>
+      <c r="G163" s="2"/>
+      <c r="H163" s="3"/>
+      <c r="I163" s="3"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
         <v>3427</v>
       </c>
-      <c r="B164">
-        <v>-39.251185300000003</v>
-      </c>
-      <c r="C164">
-        <v>24.994302050000002</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165">
+      <c r="B164" s="3">
+        <v>-28.916589940000001</v>
+      </c>
+      <c r="C164" s="3">
+        <v>20.95145471</v>
+      </c>
+      <c r="G164" s="2"/>
+      <c r="H164" s="3"/>
+      <c r="I164" s="3"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
         <v>3428</v>
       </c>
-      <c r="B165">
-        <v>-39.011641359999999</v>
-      </c>
-      <c r="C165">
-        <v>25.34776969</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166">
+      <c r="B165" s="3">
+        <v>-28.736250420000001</v>
+      </c>
+      <c r="C165" s="3">
+        <v>21.09166067</v>
+      </c>
+      <c r="G165" s="2"/>
+      <c r="H165" s="3"/>
+      <c r="I165" s="3"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
         <v>3429</v>
       </c>
-      <c r="B166">
-        <v>-34.03142021</v>
-      </c>
-      <c r="C166">
-        <v>23.264030859999998</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167">
+      <c r="B166" s="3">
+        <v>-24.59008043</v>
+      </c>
+      <c r="C166" s="3">
+        <v>19.628288699999999</v>
+      </c>
+      <c r="G166" s="2"/>
+      <c r="H166" s="3"/>
+      <c r="I166" s="3"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
         <v>3430</v>
       </c>
-      <c r="B167">
-        <v>-39.21786401</v>
-      </c>
-      <c r="C167">
-        <v>24.415670200000001</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168">
+      <c r="B167" s="3">
+        <v>-29.162628470000001</v>
+      </c>
+      <c r="C167" s="3">
+        <v>20.28546931</v>
+      </c>
+      <c r="G167" s="2"/>
+      <c r="H167" s="3"/>
+      <c r="I167" s="3"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
         <v>3431</v>
       </c>
-      <c r="B168">
-        <v>-33.175068770000003</v>
-      </c>
-      <c r="C168">
-        <v>25.48489812</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169">
+      <c r="B168" s="3">
+        <v>-24.655987270000001</v>
+      </c>
+      <c r="C168" s="3">
+        <v>21.365204309999999</v>
+      </c>
+      <c r="G168" s="2"/>
+      <c r="H168" s="3"/>
+      <c r="I168" s="3"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
         <v>3432</v>
       </c>
-      <c r="B169">
-        <v>-31.0460083</v>
-      </c>
-      <c r="C169">
-        <v>24.65378136</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170">
+      <c r="B169" s="3">
+        <v>-24.009886479999999</v>
+      </c>
+      <c r="C169" s="3">
+        <v>20.749269720000001</v>
+      </c>
+      <c r="G169" s="2"/>
+      <c r="H169" s="3"/>
+      <c r="I169" s="3"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
         <v>3433</v>
       </c>
-      <c r="B170">
-        <v>-29.726960330000001</v>
-      </c>
-      <c r="C170">
-        <v>25.142381090000001</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171">
+      <c r="B170" s="3">
+        <v>-21.809137010000001</v>
+      </c>
+      <c r="C170" s="3">
+        <v>21.518820609999999</v>
+      </c>
+      <c r="G170" s="2"/>
+      <c r="H170" s="3"/>
+      <c r="I170" s="3"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
         <v>3434</v>
       </c>
-      <c r="B171">
-        <v>-31.11306875</v>
-      </c>
-      <c r="C171">
-        <v>25.492751819999999</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172">
+      <c r="B171" s="3">
+        <v>-23.117137400000001</v>
+      </c>
+      <c r="C171" s="3">
+        <v>21.625136510000001</v>
+      </c>
+      <c r="G171" s="2"/>
+      <c r="H171" s="3"/>
+      <c r="I171" s="3"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
         <v>3435</v>
       </c>
-      <c r="B172">
-        <v>-33.725972570000003</v>
-      </c>
-      <c r="C172">
-        <v>26.144796119999999</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173">
+      <c r="B172" s="3">
+        <v>-24.020317339999998</v>
+      </c>
+      <c r="C172" s="3">
+        <v>22.03695969</v>
+      </c>
+      <c r="G172" s="2"/>
+      <c r="H172" s="3"/>
+      <c r="I172" s="3"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
         <v>3436</v>
       </c>
-      <c r="B173">
-        <v>-32.823140240000001</v>
-      </c>
-      <c r="C173">
-        <v>26.695606479999999</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174">
+      <c r="B173" s="3">
+        <v>-23.409868790000001</v>
+      </c>
+      <c r="C173" s="3">
+        <v>22.653374329999998</v>
+      </c>
+      <c r="G173" s="2"/>
+      <c r="H173" s="3"/>
+      <c r="I173" s="3"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
         <v>3437</v>
       </c>
-      <c r="B174">
-        <v>-33.768894000000003</v>
-      </c>
-      <c r="C174">
-        <v>26.388402540000001</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175">
+      <c r="B174" s="3">
+        <v>-24.436310330000001</v>
+      </c>
+      <c r="C174" s="3">
+        <v>22.320891270000001</v>
+      </c>
+      <c r="G174" s="2"/>
+      <c r="H174" s="3"/>
+      <c r="I174" s="3"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
         <v>3438</v>
       </c>
-      <c r="B175">
-        <v>-33.272838149999998</v>
-      </c>
-      <c r="C175">
-        <v>26.534080150000001</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176">
+      <c r="B175" s="3">
+        <v>-24.000271189999999</v>
+      </c>
+      <c r="C175" s="3">
+        <v>22.467820509999999</v>
+      </c>
+      <c r="G175" s="2"/>
+      <c r="H175" s="3"/>
+      <c r="I175" s="3"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
         <v>3439</v>
       </c>
-      <c r="B176">
-        <v>-32.570903889999997</v>
-      </c>
-      <c r="C176">
-        <v>26.599481619999999</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177">
+      <c r="B176" s="3">
+        <v>-22.954552379999999</v>
+      </c>
+      <c r="C176" s="3">
+        <v>22.77673631</v>
+      </c>
+      <c r="G176" s="2"/>
+      <c r="H176" s="3"/>
+      <c r="I176" s="3"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
         <v>3440</v>
       </c>
-      <c r="B177">
-        <v>-32.009294140000002</v>
-      </c>
-      <c r="C177">
-        <v>26.57619717</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178">
+      <c r="B177" s="3">
+        <v>-22.781130109999999</v>
+      </c>
+      <c r="C177" s="3">
+        <v>23.138586220000001</v>
+      </c>
+      <c r="G177" s="2"/>
+      <c r="H177" s="3"/>
+      <c r="I177" s="3"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
         <v>3441</v>
       </c>
-      <c r="B178">
-        <v>-32.112050109999998</v>
-      </c>
-      <c r="C178">
-        <v>26.820435010000001</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179">
+      <c r="B178" s="3">
+        <v>-22.90422135</v>
+      </c>
+      <c r="C178" s="3">
+        <v>23.184835379999999</v>
+      </c>
+      <c r="G178" s="2"/>
+      <c r="H178" s="3"/>
+      <c r="I178" s="3"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
         <v>3442</v>
       </c>
-      <c r="B179">
-        <v>-30.34848903</v>
-      </c>
-      <c r="C179">
-        <v>27.767876149999999</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180">
+      <c r="B179" s="3">
+        <v>-21.377913119999999</v>
+      </c>
+      <c r="C179" s="3">
+        <v>23.61319477</v>
+      </c>
+      <c r="G179" s="2"/>
+      <c r="H179" s="3"/>
+      <c r="I179" s="3"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
         <v>3443</v>
       </c>
-      <c r="B180">
-        <v>-30.206344189999999</v>
-      </c>
-      <c r="C180">
-        <v>27.30132579</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181">
+      <c r="B180" s="3">
+        <v>-21.655394439999998</v>
+      </c>
+      <c r="C180" s="3">
+        <v>23.106733240000001</v>
+      </c>
+      <c r="G180" s="2"/>
+      <c r="H180" s="3"/>
+      <c r="I180" s="3"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
         <v>3446</v>
       </c>
-      <c r="B181">
-        <v>-28.125134370000001</v>
-      </c>
-      <c r="C181">
-        <v>27.376280730000001</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182">
+      <c r="B181" s="3">
+        <v>-20.80061109</v>
+      </c>
+      <c r="C181" s="3">
+        <v>23.46270539</v>
+      </c>
+      <c r="G181" s="2"/>
+      <c r="H181" s="3"/>
+      <c r="I181" s="3"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
         <v>3447</v>
       </c>
-      <c r="B182">
-        <v>-30.440958550000001</v>
-      </c>
-      <c r="C182">
-        <v>27.578269089999999</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183">
+      <c r="B182" s="3">
+        <v>-21.535428209999999</v>
+      </c>
+      <c r="C182" s="3">
+        <v>23.497305610000002</v>
+      </c>
+      <c r="G182" s="2"/>
+      <c r="H182" s="3"/>
+      <c r="I182" s="3"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
         <v>3448</v>
       </c>
-      <c r="B183">
-        <v>-30.950288270000001</v>
-      </c>
-      <c r="C183">
-        <v>27.43726186</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184">
+      <c r="B183" s="3">
+        <v>-21.60574244</v>
+      </c>
+      <c r="C183" s="3">
+        <v>23.68103236</v>
+      </c>
+      <c r="G183" s="2"/>
+      <c r="H183" s="3"/>
+      <c r="I183" s="3"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
         <v>3449</v>
       </c>
-      <c r="B184">
-        <v>-32.496704229999999</v>
-      </c>
-      <c r="C184">
-        <v>26.940937399999999</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185">
+      <c r="B184" s="3">
+        <v>-23.437944850000001</v>
+      </c>
+      <c r="C184" s="3">
+        <v>23.33238283</v>
+      </c>
+      <c r="G184" s="2"/>
+      <c r="H184" s="3"/>
+      <c r="I184" s="3"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
         <v>3450</v>
       </c>
-      <c r="B185">
-        <v>-32.23202165</v>
-      </c>
-      <c r="C185">
-        <v>26.899830420000001</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186">
+      <c r="B185" s="3">
+        <v>-23.4727192</v>
+      </c>
+      <c r="C185" s="3">
+        <v>22.977722459999999</v>
+      </c>
+      <c r="G185" s="2"/>
+      <c r="H185" s="3"/>
+      <c r="I185" s="3"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
         <v>3451</v>
       </c>
-      <c r="B186">
-        <v>-32.76211077</v>
-      </c>
-      <c r="C186">
-        <v>26.497265250000002</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187">
+      <c r="B186" s="3">
+        <v>-24.415712620000001</v>
+      </c>
+      <c r="C186" s="3">
+        <v>22.795164849999999</v>
+      </c>
+      <c r="G186" s="2"/>
+      <c r="H186" s="3"/>
+      <c r="I186" s="3"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
         <v>3452</v>
       </c>
-      <c r="B187">
-        <v>-32.345172669999997</v>
-      </c>
-      <c r="C187">
-        <v>26.253997429999998</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188">
+      <c r="B187" s="3">
+        <v>-23.912456079999998</v>
+      </c>
+      <c r="C187" s="3">
+        <v>22.680086679999999</v>
+      </c>
+      <c r="G187" s="2"/>
+      <c r="H187" s="3"/>
+      <c r="I187" s="3"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
         <v>3453</v>
       </c>
-      <c r="B188">
-        <v>-32.919865520000002</v>
-      </c>
-      <c r="C188">
-        <v>25.347139550000001</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189">
+      <c r="B188" s="3">
+        <v>-24.065617039999999</v>
+      </c>
+      <c r="C188" s="3">
+        <v>21.904718410000001</v>
+      </c>
+      <c r="G188" s="2"/>
+      <c r="H188" s="3"/>
+      <c r="I188" s="3"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
         <v>3454</v>
       </c>
-      <c r="B189">
-        <v>-32.2708674</v>
-      </c>
-      <c r="C189">
-        <v>24.852356440000001</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190">
+      <c r="B189" s="3">
+        <v>-23.28322588</v>
+      </c>
+      <c r="C189" s="3">
+        <v>21.569763250000001</v>
+      </c>
+      <c r="G189" s="2"/>
+      <c r="H189" s="3"/>
+      <c r="I189" s="3"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
         <v>3801</v>
       </c>
-      <c r="B190">
-        <v>-23.48704991</v>
-      </c>
-      <c r="C190">
-        <v>27.00167531</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191">
+      <c r="B190" s="3">
+        <v>-16.58704685</v>
+      </c>
+      <c r="C190" s="3">
+        <v>24.068106310000001</v>
+      </c>
+      <c r="G190" s="2"/>
+      <c r="H190" s="3"/>
+      <c r="I190" s="3"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
         <v>3802</v>
       </c>
-      <c r="B191">
-        <v>-23.725286610000001</v>
-      </c>
-      <c r="C191">
-        <v>27.285609999999998</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192">
+      <c r="B191" s="3">
+        <v>-17.17392843</v>
+      </c>
+      <c r="C191" s="3">
+        <v>24.145572680000001</v>
+      </c>
+      <c r="G191" s="2"/>
+      <c r="H191" s="3"/>
+      <c r="I191" s="3"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
         <v>3803</v>
       </c>
-      <c r="B192">
-        <v>-22.312575710000001</v>
-      </c>
-      <c r="C192">
-        <v>26.86762457</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193">
+      <c r="B192" s="3">
+        <v>-15.76052776</v>
+      </c>
+      <c r="C192" s="3">
+        <v>23.914980280000002</v>
+      </c>
+      <c r="G192" s="2"/>
+      <c r="H192" s="3"/>
+      <c r="I192" s="3"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
         <v>3804</v>
       </c>
-      <c r="B193">
-        <v>-20.632027430000001</v>
-      </c>
-      <c r="C193">
-        <v>26.565650730000002</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194">
+      <c r="B193" s="3">
+        <v>-14.506660399999999</v>
+      </c>
+      <c r="C193" s="3">
+        <v>23.834133390000002</v>
+      </c>
+      <c r="G193" s="2"/>
+      <c r="H193" s="3"/>
+      <c r="I193" s="3"/>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
         <v>3805</v>
       </c>
-      <c r="B194">
-        <v>-20.555449719999999</v>
-      </c>
-      <c r="C194">
-        <v>26.851891819999999</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195">
+      <c r="B194" s="3">
+        <v>-14.14140587</v>
+      </c>
+      <c r="C194" s="3">
+        <v>24.02906883</v>
+      </c>
+      <c r="G194" s="2"/>
+      <c r="H194" s="3"/>
+      <c r="I194" s="3"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
         <v>3806</v>
       </c>
-      <c r="B195">
-        <v>-20.997026309999999</v>
-      </c>
-      <c r="C195">
-        <v>26.331749519999999</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196">
+      <c r="B195" s="3">
+        <v>-14.439192780000001</v>
+      </c>
+      <c r="C195" s="3">
+        <v>23.57528186</v>
+      </c>
+      <c r="G195" s="2"/>
+      <c r="H195" s="3"/>
+      <c r="I195" s="3"/>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
         <v>3807</v>
       </c>
-      <c r="B196">
-        <v>-21.502062769999998</v>
-      </c>
-      <c r="C196">
-        <v>26.19074131</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197">
+      <c r="B196" s="3">
+        <v>-15.01210223</v>
+      </c>
+      <c r="C196" s="3">
+        <v>23.642584110000001</v>
+      </c>
+      <c r="G196" s="2"/>
+      <c r="H196" s="3"/>
+      <c r="I196" s="3"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
         <v>3808</v>
       </c>
-      <c r="B197">
-        <v>-25.653235760000001</v>
-      </c>
-      <c r="C197">
-        <v>26.90021016</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198">
+      <c r="B197" s="3">
+        <v>-18.02167395</v>
+      </c>
+      <c r="C197" s="3">
+        <v>23.76264883</v>
+      </c>
+      <c r="G197" s="2"/>
+      <c r="H197" s="3"/>
+      <c r="I197" s="3"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
         <v>3811</v>
       </c>
-      <c r="B198">
-        <v>-21.99282766</v>
-      </c>
-      <c r="C198">
-        <v>26.77928558</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199">
+      <c r="B198" s="3">
+        <v>-15.332175550000001</v>
+      </c>
+      <c r="C198" s="3">
+        <v>23.906597430000001</v>
+      </c>
+      <c r="G198" s="2"/>
+      <c r="H198" s="3"/>
+      <c r="I198" s="3"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
         <v>3812</v>
       </c>
-      <c r="B199">
-        <v>-23.55538426</v>
-      </c>
-      <c r="C199">
-        <v>26.861836310000001</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200">
+      <c r="B199" s="3">
+        <v>-16.911035630000001</v>
+      </c>
+      <c r="C199" s="3">
+        <v>23.752621850000001</v>
+      </c>
+      <c r="G199" s="2"/>
+      <c r="H199" s="3"/>
+      <c r="I199" s="3"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
         <v>3813</v>
       </c>
-      <c r="B200">
-        <v>-19.100194940000002</v>
-      </c>
-      <c r="C200">
-        <v>26.39415</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201">
+      <c r="B200" s="3">
+        <v>-12.903909799999999</v>
+      </c>
+      <c r="C200" s="3">
+        <v>23.704804070000002</v>
+      </c>
+      <c r="G200" s="2"/>
+      <c r="H200" s="3"/>
+      <c r="I200" s="3"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
         <v>3814</v>
       </c>
-      <c r="B201">
-        <v>-18.48456612</v>
-      </c>
-      <c r="C201">
-        <v>26.136146969999999</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202">
+      <c r="B201" s="3">
+        <v>-11.75910923</v>
+      </c>
+      <c r="C201" s="3">
+        <v>23.337208560000001</v>
+      </c>
+      <c r="G201" s="2"/>
+      <c r="H201" s="3"/>
+      <c r="I201" s="3"/>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
         <v>3815</v>
       </c>
-      <c r="B202">
-        <v>-22.661071280000002</v>
-      </c>
-      <c r="C202">
-        <v>26.485806010000001</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203">
+      <c r="B202" s="3">
+        <v>-15.681215979999999</v>
+      </c>
+      <c r="C202" s="3">
+        <v>23.55457277</v>
+      </c>
+      <c r="G202" s="2"/>
+      <c r="H202" s="3"/>
+      <c r="I202" s="3"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
         <v>3816</v>
       </c>
-      <c r="B203">
-        <v>-22.51472905</v>
-      </c>
-      <c r="C203">
-        <v>26.613503059999999</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204">
+      <c r="B203" s="3">
+        <v>-15.83337562</v>
+      </c>
+      <c r="C203" s="3">
+        <v>23.56813481</v>
+      </c>
+      <c r="G203" s="2"/>
+      <c r="H203" s="3"/>
+      <c r="I203" s="3"/>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
         <v>3817</v>
       </c>
-      <c r="B204">
-        <v>-23.933079970000001</v>
-      </c>
-      <c r="C204">
-        <v>26.922079709999998</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205">
+      <c r="B204" s="3">
+        <v>-17.059809779999998</v>
+      </c>
+      <c r="C204" s="3">
+        <v>23.881245180000001</v>
+      </c>
+      <c r="G204" s="2"/>
+      <c r="H204" s="3"/>
+      <c r="I204" s="3"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
         <v>3818</v>
       </c>
-      <c r="B205">
-        <v>-26.103174800000001</v>
-      </c>
-      <c r="C205">
-        <v>25.13198319</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206">
+      <c r="B205" s="3">
+        <v>-18.55394695</v>
+      </c>
+      <c r="C205" s="3">
+        <v>22.146286490000001</v>
+      </c>
+      <c r="G205" s="2"/>
+      <c r="H205" s="3"/>
+      <c r="I205" s="3"/>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" s="2">
         <v>3819</v>
       </c>
-      <c r="B206">
-        <v>-25.379838830000001</v>
-      </c>
-      <c r="C206">
-        <v>27.11844468</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207">
+      <c r="B206" s="3">
+        <v>-18.12891514</v>
+      </c>
+      <c r="C206" s="3">
+        <v>23.870931949999999</v>
+      </c>
+      <c r="G206" s="2"/>
+      <c r="H206" s="3"/>
+      <c r="I206" s="3"/>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" s="2">
         <v>3820</v>
       </c>
-      <c r="B207">
-        <v>-23.659062559999999</v>
-      </c>
-      <c r="C207">
-        <v>26.15683512</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208">
+      <c r="B207" s="3">
+        <v>-16.629541809999999</v>
+      </c>
+      <c r="C207" s="3">
+        <v>23.39421098</v>
+      </c>
+      <c r="G207" s="2"/>
+      <c r="H207" s="3"/>
+      <c r="I207" s="3"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" s="2">
         <v>3821</v>
       </c>
-      <c r="B208">
-        <v>-21.96690761</v>
-      </c>
-      <c r="C208">
-        <v>26.134130800000001</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209">
+      <c r="B208" s="3">
+        <v>-15.356621929999999</v>
+      </c>
+      <c r="C208" s="3">
+        <v>23.375250399999999</v>
+      </c>
+      <c r="G208" s="2"/>
+      <c r="H208" s="3"/>
+      <c r="I208" s="3"/>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" s="2">
         <v>3822</v>
       </c>
-      <c r="B209">
-        <v>-23.395423569999998</v>
-      </c>
-      <c r="C209">
-        <v>25.454057280000001</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210">
+      <c r="B209" s="3">
+        <v>-16.420399270000001</v>
+      </c>
+      <c r="C209" s="3">
+        <v>22.636607699999999</v>
+      </c>
+      <c r="G209" s="2"/>
+      <c r="H209" s="3"/>
+      <c r="I209" s="3"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" s="2">
         <v>3823</v>
       </c>
-      <c r="B210">
-        <v>-22.90374684</v>
-      </c>
-      <c r="C210">
-        <v>24.988722559999999</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211">
+      <c r="B210" s="3">
+        <v>-16.206189070000001</v>
+      </c>
+      <c r="C210" s="3">
+        <v>22.469338310000001</v>
+      </c>
+      <c r="G210" s="2"/>
+      <c r="H210" s="3"/>
+      <c r="I210" s="3"/>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" s="2">
         <v>3824</v>
       </c>
-      <c r="B211">
-        <v>-20.170183470000001</v>
-      </c>
-      <c r="C211">
-        <v>25.67743158</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212">
+      <c r="B211" s="3">
+        <v>-14.403380459999999</v>
+      </c>
+      <c r="C211" s="3">
+        <v>23.091222680000001</v>
+      </c>
+      <c r="G211" s="2"/>
+      <c r="H211" s="3"/>
+      <c r="I211" s="3"/>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" s="2">
         <v>3825</v>
       </c>
-      <c r="B212">
-        <v>-24.302990359999999</v>
-      </c>
-      <c r="C212">
-        <v>23.680813069999999</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213">
+      <c r="B212" s="3">
+        <v>-18.565611919999998</v>
+      </c>
+      <c r="C212" s="3">
+        <v>21.123810899999999</v>
+      </c>
+      <c r="G212" s="2"/>
+      <c r="H212" s="3"/>
+      <c r="I212" s="3"/>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" s="2">
         <v>4201</v>
       </c>
-      <c r="B213">
-        <v>-19.749795209999998</v>
-      </c>
-      <c r="C213">
-        <v>26.261067480000001</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214">
+      <c r="B213" s="3">
+        <v>-12.96414371</v>
+      </c>
+      <c r="C213" s="3">
+        <v>23.25690646</v>
+      </c>
+      <c r="G213" s="2"/>
+      <c r="H213" s="3"/>
+      <c r="I213" s="3"/>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" s="2">
         <v>4202</v>
       </c>
-      <c r="B214">
-        <v>-19.95721481</v>
-      </c>
-      <c r="C214">
-        <v>25.81626627</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215">
+      <c r="B214" s="3">
+        <v>-13.10696435</v>
+      </c>
+      <c r="C214" s="3">
+        <v>23.011361619999999</v>
+      </c>
+      <c r="G214" s="2"/>
+      <c r="H214" s="3"/>
+      <c r="I214" s="3"/>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" s="2">
         <v>4203</v>
       </c>
-      <c r="B215">
-        <v>-19.743795559999999</v>
-      </c>
-      <c r="C215">
-        <v>25.89611081</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216">
+      <c r="B215" s="3">
+        <v>-13.03255163</v>
+      </c>
+      <c r="C215" s="3">
+        <v>23.126367890000001</v>
+      </c>
+      <c r="G215" s="2"/>
+      <c r="H215" s="3"/>
+      <c r="I215" s="3"/>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" s="2">
         <v>4204</v>
       </c>
-      <c r="B216">
-        <v>-18.914244329999999</v>
-      </c>
-      <c r="C216">
-        <v>25.526357040000001</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217">
+      <c r="B216" s="3">
+        <v>-11.90245679</v>
+      </c>
+      <c r="C216" s="3">
+        <v>23.055387499999998</v>
+      </c>
+      <c r="G216" s="2"/>
+      <c r="H216" s="3"/>
+      <c r="I216" s="3"/>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" s="2">
         <v>4205</v>
       </c>
-      <c r="B217">
-        <v>-15.58620432</v>
-      </c>
-      <c r="C217">
-        <v>25.424307970000001</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218">
+      <c r="B217" s="3">
+        <v>-9.5632640200000001</v>
+      </c>
+      <c r="C217" s="3">
+        <v>22.948280109999999</v>
+      </c>
+      <c r="G217" s="2"/>
+      <c r="H217" s="3"/>
+      <c r="I217" s="3"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" s="2">
         <v>4206</v>
       </c>
-      <c r="B218">
-        <v>-13.54528928</v>
-      </c>
-      <c r="C218">
-        <v>25.39042117</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219">
+      <c r="B218" s="3">
+        <v>-8.7628318610000004</v>
+      </c>
+      <c r="C218" s="3">
+        <v>22.65873388</v>
+      </c>
+      <c r="G218" s="2"/>
+      <c r="H218" s="3"/>
+      <c r="I218" s="3"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" s="2">
         <v>4207</v>
       </c>
-      <c r="B219">
-        <v>-15.547609660000001</v>
-      </c>
-      <c r="C219">
-        <v>24.689747740000001</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220">
+      <c r="B219" s="3">
+        <v>-10.45927932</v>
+      </c>
+      <c r="C219" s="3">
+        <v>22.747372949999999</v>
+      </c>
+      <c r="G219" s="2"/>
+      <c r="H219" s="3"/>
+      <c r="I219" s="3"/>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" s="2">
         <v>4211</v>
       </c>
-      <c r="B220">
-        <v>-21.919234800000002</v>
-      </c>
-      <c r="C220">
-        <v>26.75509186</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221">
+      <c r="B220" s="3">
+        <v>-14.53866691</v>
+      </c>
+      <c r="C220" s="3">
+        <v>23.4654855</v>
+      </c>
+      <c r="G220" s="2"/>
+      <c r="H220" s="3"/>
+      <c r="I220" s="3"/>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" s="2">
         <v>4212</v>
       </c>
-      <c r="B221">
-        <v>-22.927803149999999</v>
-      </c>
-      <c r="C221">
-        <v>26.03824942</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222">
+      <c r="B221" s="3">
+        <v>-16.232390890000001</v>
+      </c>
+      <c r="C221" s="3">
+        <v>22.946490539999999</v>
+      </c>
+      <c r="G221" s="2"/>
+      <c r="H221" s="3"/>
+      <c r="I221" s="3"/>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" s="2">
         <v>4213</v>
       </c>
-      <c r="B222">
-        <v>-21.322930410000001</v>
-      </c>
-      <c r="C222">
-        <v>26.531761530000001</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223">
+      <c r="B222" s="3">
+        <v>-14.40836943</v>
+      </c>
+      <c r="C222" s="3">
+        <v>23.31583461</v>
+      </c>
+      <c r="G222" s="2"/>
+      <c r="H222" s="3"/>
+      <c r="I222" s="3"/>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" s="2">
         <v>4214</v>
       </c>
-      <c r="B223">
-        <v>-22.878990600000002</v>
-      </c>
-      <c r="C223">
-        <v>26.58555393</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224">
+      <c r="B223" s="3">
+        <v>-15.5622875</v>
+      </c>
+      <c r="C223" s="3">
+        <v>23.411646640000001</v>
+      </c>
+      <c r="G223" s="2"/>
+      <c r="H223" s="3"/>
+      <c r="I223" s="3"/>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" s="2">
         <v>4215</v>
       </c>
-      <c r="B224">
-        <v>-20.1746637</v>
-      </c>
-      <c r="C224">
-        <v>25.768310419999999</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225">
+      <c r="B224" s="3">
+        <v>-13.00784288</v>
+      </c>
+      <c r="C224" s="3">
+        <v>23.092832099999999</v>
+      </c>
+      <c r="G224" s="2"/>
+      <c r="H224" s="3"/>
+      <c r="I224" s="3"/>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" s="2">
         <v>4216</v>
       </c>
-      <c r="B225">
-        <v>-21.03540254</v>
-      </c>
-      <c r="C225">
-        <v>26.036931379999999</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226">
+      <c r="B225" s="3">
+        <v>-14.24839856</v>
+      </c>
+      <c r="C225" s="3">
+        <v>23.381567619999998</v>
+      </c>
+      <c r="G225" s="2"/>
+      <c r="H225" s="3"/>
+      <c r="I225" s="3"/>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" s="2">
         <v>4217</v>
       </c>
-      <c r="B226">
-        <v>-23.404642469999999</v>
-      </c>
-      <c r="C226">
-        <v>26.314909960000001</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227">
+      <c r="B226" s="3">
+        <v>-15.989902730000001</v>
+      </c>
+      <c r="C226" s="3">
+        <v>23.234416790000001</v>
+      </c>
+      <c r="G226" s="2"/>
+      <c r="H226" s="3"/>
+      <c r="I226" s="3"/>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" s="2">
         <v>4218</v>
       </c>
-      <c r="B227">
-        <v>-21.40306326</v>
-      </c>
-      <c r="C227">
-        <v>25.357936330000001</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228">
+      <c r="B227" s="3">
+        <v>-15.273928919999999</v>
+      </c>
+      <c r="C227" s="3">
+        <v>22.356997280000002</v>
+      </c>
+      <c r="G227" s="2"/>
+      <c r="H227" s="3"/>
+      <c r="I227" s="3"/>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" s="2">
         <v>4219</v>
       </c>
-      <c r="B228">
-        <v>-21.073515359999998</v>
-      </c>
-      <c r="C228">
-        <v>26.058293549999998</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229">
+      <c r="B228" s="3">
+        <v>-14.622840180000001</v>
+      </c>
+      <c r="C228" s="3">
+        <v>23.089031769999998</v>
+      </c>
+      <c r="G228" s="2"/>
+      <c r="H228" s="3"/>
+      <c r="I228" s="3"/>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" s="2">
         <v>4220</v>
       </c>
-      <c r="B229">
-        <v>-21.181063179999999</v>
-      </c>
-      <c r="C229">
-        <v>25.59195544</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230">
+      <c r="B229" s="3">
+        <v>-14.79388904</v>
+      </c>
+      <c r="C229" s="3">
+        <v>22.969121749999999</v>
+      </c>
+      <c r="G229" s="2"/>
+      <c r="H229" s="3"/>
+      <c r="I229" s="3"/>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" s="2">
         <v>4221</v>
       </c>
-      <c r="B230">
-        <v>-21.755401169999999</v>
-      </c>
-      <c r="C230">
-        <v>24.224060359999999</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231">
+      <c r="B230" s="3">
+        <v>-16.150673229999999</v>
+      </c>
+      <c r="C230" s="3">
+        <v>21.883675199999999</v>
+      </c>
+      <c r="G230" s="2"/>
+      <c r="H230" s="3"/>
+      <c r="I230" s="3"/>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" s="2">
         <v>4222</v>
       </c>
-      <c r="B231">
-        <v>-29.62546725</v>
-      </c>
-      <c r="C231">
-        <v>21.968686120000001</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232">
+      <c r="B231" s="3">
+        <v>-22.233709510000001</v>
+      </c>
+      <c r="C231" s="3">
+        <v>19.08063932</v>
+      </c>
+      <c r="G231" s="2"/>
+      <c r="H231" s="3"/>
+      <c r="I231" s="3"/>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" s="2">
         <v>4223</v>
       </c>
-      <c r="B232">
-        <v>-20.03112337</v>
-      </c>
-      <c r="C232">
-        <v>25.78473735</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233">
+      <c r="B232" s="3">
+        <v>-13.185165189999999</v>
+      </c>
+      <c r="C232" s="3">
+        <v>23.241612570000001</v>
+      </c>
+      <c r="G232" s="2"/>
+      <c r="H232" s="3"/>
+      <c r="I232" s="3"/>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" s="2">
         <v>4224</v>
       </c>
-      <c r="B233">
-        <v>-20.050405420000001</v>
-      </c>
-      <c r="C233">
-        <v>24.710890060000001</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234">
+      <c r="B233" s="3">
+        <v>-14.63800784</v>
+      </c>
+      <c r="C233" s="3">
+        <v>22.227605230000002</v>
+      </c>
+      <c r="G233" s="2"/>
+      <c r="H233" s="3"/>
+      <c r="I233" s="3"/>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" s="2">
         <v>4225</v>
       </c>
-      <c r="B234">
-        <v>-14.950838320000001</v>
-      </c>
-      <c r="C234">
-        <v>25.158556900000001</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235">
+      <c r="B234" s="3">
+        <v>-9.1741508360000008</v>
+      </c>
+      <c r="C234" s="3">
+        <v>22.797760719999999</v>
+      </c>
+      <c r="G234" s="2"/>
+      <c r="H234" s="3"/>
+      <c r="I234" s="3"/>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" s="2">
         <v>4226</v>
       </c>
-      <c r="B235">
-        <v>-18.1182312</v>
-      </c>
-      <c r="C235">
-        <v>24.86785364</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236">
+      <c r="B235" s="3">
+        <v>-12.53462817</v>
+      </c>
+      <c r="C235" s="3">
+        <v>22.812344769999999</v>
+      </c>
+      <c r="G235" s="2"/>
+      <c r="H235" s="3"/>
+      <c r="I235" s="3"/>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236" s="2">
         <v>4227</v>
       </c>
-      <c r="B236">
-        <v>-15.581101889999999</v>
-      </c>
-      <c r="C236">
-        <v>25.071258579999999</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237">
+      <c r="B236" s="3">
+        <v>-9.9257605330000001</v>
+      </c>
+      <c r="C236" s="3">
+        <v>22.694843550000002</v>
+      </c>
+      <c r="G236" s="2"/>
+      <c r="H236" s="3"/>
+      <c r="I236" s="3"/>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" s="2">
         <v>4228</v>
       </c>
-      <c r="B237">
-        <v>-15.91574327</v>
-      </c>
-      <c r="C237">
-        <v>25.40711786</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238">
+      <c r="B237" s="3">
+        <v>-11.35159211</v>
+      </c>
+      <c r="C237" s="3">
+        <v>22.936678919999999</v>
+      </c>
+      <c r="G237" s="2"/>
+      <c r="H237" s="3"/>
+      <c r="I237" s="3"/>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" s="2">
         <v>4601</v>
       </c>
-      <c r="B238">
-        <v>-13.06233737</v>
-      </c>
-      <c r="C238">
-        <v>26.801338680000001</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239">
+      <c r="B238" s="3">
+        <v>-9.2598563540000001</v>
+      </c>
+      <c r="C238" s="3">
+        <v>23.043709799999998</v>
+      </c>
+      <c r="G238" s="2"/>
+      <c r="H238" s="3"/>
+      <c r="I238" s="3"/>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239" s="2">
         <v>4602</v>
       </c>
-      <c r="B239">
-        <v>-9.2495702780000002</v>
-      </c>
-      <c r="C239">
-        <v>24.167467179999999</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240">
+      <c r="B239" s="3">
+        <v>-6.887460806</v>
+      </c>
+      <c r="C239" s="3">
+        <v>21.619300119999998</v>
+      </c>
+      <c r="G239" s="2"/>
+      <c r="H239" s="3"/>
+      <c r="I239" s="3"/>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" s="2">
         <v>4611</v>
       </c>
-      <c r="B240">
-        <v>-14.765928779999999</v>
-      </c>
-      <c r="C240">
-        <v>26.475678609999999</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241">
+      <c r="B240" s="3">
+        <v>-9.5823784520000004</v>
+      </c>
+      <c r="C240" s="3">
+        <v>23.135821849999999</v>
+      </c>
+      <c r="G240" s="2"/>
+      <c r="H240" s="3"/>
+      <c r="I240" s="3"/>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241" s="2">
         <v>4612</v>
       </c>
-      <c r="B241">
-        <v>-12.150437439999999</v>
-      </c>
-      <c r="C241">
-        <v>25.965804330000001</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242">
+      <c r="B241" s="3">
+        <v>-7.9430899610000001</v>
+      </c>
+      <c r="C241" s="3">
+        <v>22.486172509999999</v>
+      </c>
+      <c r="G241" s="2"/>
+      <c r="H241" s="3"/>
+      <c r="I241" s="3"/>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242" s="2">
         <v>4613</v>
       </c>
-      <c r="B242">
-        <v>-11.003482229999999</v>
-      </c>
-      <c r="C242">
-        <v>26.16810916</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243">
+      <c r="B242" s="3">
+        <v>-7.1389401269999997</v>
+      </c>
+      <c r="C242" s="3">
+        <v>22.540583560000002</v>
+      </c>
+      <c r="G242" s="2"/>
+      <c r="H242" s="3"/>
+      <c r="I242" s="3"/>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243" s="2">
         <v>4614</v>
       </c>
-      <c r="B243">
-        <v>-12.51739106</v>
-      </c>
-      <c r="C243">
-        <v>26.142198520000001</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244">
+      <c r="B243" s="3">
+        <v>-8.1375893989999994</v>
+      </c>
+      <c r="C243" s="3">
+        <v>22.74587988</v>
+      </c>
+      <c r="G243" s="2"/>
+      <c r="H243" s="3"/>
+      <c r="I243" s="3"/>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244" s="2">
         <v>4615</v>
       </c>
-      <c r="B244">
-        <v>-11.99394588</v>
-      </c>
-      <c r="C244">
-        <v>25.921181709999999</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245">
+      <c r="B244" s="3">
+        <v>-7.8317224750000003</v>
+      </c>
+      <c r="C244" s="3">
+        <v>22.886766009999999</v>
+      </c>
+      <c r="G244" s="2"/>
+      <c r="H244" s="3"/>
+      <c r="I244" s="3"/>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245" s="2">
         <v>4616</v>
       </c>
-      <c r="B245">
-        <v>-13.565678979999999</v>
-      </c>
-      <c r="C245">
-        <v>26.232835089999998</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246">
+      <c r="B245" s="3">
+        <v>-9.1279592059999999</v>
+      </c>
+      <c r="C245" s="3">
+        <v>22.877222880000001</v>
+      </c>
+      <c r="G245" s="2"/>
+      <c r="H245" s="3"/>
+      <c r="I245" s="3"/>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246" s="2">
         <v>4617</v>
       </c>
-      <c r="B246">
-        <v>-14.50482392</v>
-      </c>
-      <c r="C246">
-        <v>26.382020489999999</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247">
+      <c r="B246" s="3">
+        <v>-10.030358550000001</v>
+      </c>
+      <c r="C246" s="3">
+        <v>23.327035290000001</v>
+      </c>
+      <c r="G246" s="2"/>
+      <c r="H246" s="3"/>
+      <c r="I246" s="3"/>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247" s="2">
         <v>4618</v>
       </c>
-      <c r="B247">
-        <v>-15.6785079</v>
-      </c>
-      <c r="C247">
-        <v>26.298516530000001</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248">
+      <c r="B247" s="3">
+        <v>-10.85179632</v>
+      </c>
+      <c r="C247" s="3">
+        <v>23.193988359999999</v>
+      </c>
+      <c r="G247" s="2"/>
+      <c r="H247" s="3"/>
+      <c r="I247" s="3"/>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A248" s="2">
         <v>4619</v>
       </c>
-      <c r="B248">
-        <v>-17.213091689999999</v>
-      </c>
-      <c r="C248">
-        <v>26.378862649999999</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249">
+      <c r="B248" s="3">
+        <v>-12.445063449999999</v>
+      </c>
+      <c r="C248" s="3">
+        <v>23.090361290000001</v>
+      </c>
+      <c r="G248" s="2"/>
+      <c r="H248" s="3"/>
+      <c r="I248" s="3"/>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A249" s="2">
         <v>4620</v>
       </c>
-      <c r="B249">
-        <v>-18.70876277</v>
-      </c>
-      <c r="C249">
-        <v>26.917020699999998</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250">
+      <c r="B249" s="3">
+        <v>-13.813899920000001</v>
+      </c>
+      <c r="C249" s="3">
+        <v>23.398080629999999</v>
+      </c>
+      <c r="G249" s="2"/>
+      <c r="H249" s="3"/>
+      <c r="I249" s="3"/>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A250" s="2">
         <v>4621</v>
       </c>
-      <c r="B250">
-        <v>-18.893737949999998</v>
-      </c>
-      <c r="C250">
-        <v>26.49745914</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251">
+      <c r="B250" s="3">
+        <v>-13.502162500000001</v>
+      </c>
+      <c r="C250" s="3">
+        <v>23.234649770000001</v>
+      </c>
+      <c r="G250" s="2"/>
+      <c r="H250" s="3"/>
+      <c r="I250" s="3"/>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A251" s="2">
         <v>4622</v>
       </c>
-      <c r="B251">
-        <v>-15.70026423</v>
-      </c>
-      <c r="C251">
-        <v>26.633104939999999</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252">
+      <c r="B251" s="3">
+        <v>-11.15010822</v>
+      </c>
+      <c r="C251" s="3">
+        <v>23.12706176</v>
+      </c>
+      <c r="G251" s="2"/>
+      <c r="H251" s="3"/>
+      <c r="I251" s="3"/>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252" s="2">
         <v>4623</v>
       </c>
-      <c r="B252">
-        <v>-15.60211318</v>
-      </c>
-      <c r="C252">
-        <v>26.73557954</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253">
+      <c r="B252" s="3">
+        <v>-11.221493880000001</v>
+      </c>
+      <c r="C252" s="3">
+        <v>23.08708987</v>
+      </c>
+      <c r="G252" s="2"/>
+      <c r="H252" s="3"/>
+      <c r="I252" s="3"/>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253" s="2">
         <v>4624</v>
       </c>
-      <c r="B253">
-        <v>-11.996179189999999</v>
-      </c>
-      <c r="C253">
-        <v>26.43930009</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254">
+      <c r="B253" s="3">
+        <v>-8.0205267760000005</v>
+      </c>
+      <c r="C253" s="3">
+        <v>22.974199469999999</v>
+      </c>
+      <c r="G253" s="2"/>
+      <c r="H253" s="3"/>
+      <c r="I253" s="3"/>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254" s="2">
         <v>4625</v>
       </c>
-      <c r="B254">
-        <v>-11.125741919999999</v>
-      </c>
-      <c r="C254">
-        <v>26.494811049999999</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255">
+      <c r="B254" s="3">
+        <v>-7.3343445960000002</v>
+      </c>
+      <c r="C254" s="3">
+        <v>22.809310409999998</v>
+      </c>
+      <c r="G254" s="2"/>
+      <c r="H254" s="3"/>
+      <c r="I254" s="3"/>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255" s="2">
         <v>4626</v>
       </c>
-      <c r="B255">
-        <v>-11.914354400000001</v>
-      </c>
-      <c r="C255">
-        <v>26.788127849999999</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256">
+      <c r="B255" s="3">
+        <v>-7.9490488929999996</v>
+      </c>
+      <c r="C255" s="3">
+        <v>22.814552379999999</v>
+      </c>
+      <c r="G255" s="2"/>
+      <c r="H255" s="3"/>
+      <c r="I255" s="3"/>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256" s="2">
         <v>4627</v>
       </c>
-      <c r="B256">
-        <v>-9.9370252580000002</v>
-      </c>
-      <c r="C256">
-        <v>26.956488530000001</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257">
+      <c r="B256" s="3">
+        <v>-6.1643451889999996</v>
+      </c>
+      <c r="C256" s="3">
+        <v>22.7478269</v>
+      </c>
+      <c r="G256" s="2"/>
+      <c r="H256" s="3"/>
+      <c r="I256" s="3"/>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A257" s="2">
         <v>4628</v>
       </c>
-      <c r="B257">
-        <v>-18.191777200000001</v>
-      </c>
-      <c r="C257">
-        <v>25.888701609999998</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258">
+      <c r="B257" s="3">
+        <v>-13.95814695</v>
+      </c>
+      <c r="C257" s="3">
+        <v>21.987082690000001</v>
+      </c>
+      <c r="G257" s="2"/>
+      <c r="H257" s="3"/>
+      <c r="I257" s="3"/>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A258" s="2">
         <v>4629</v>
       </c>
-      <c r="B258">
-        <v>-15.76860544</v>
-      </c>
-      <c r="C258">
-        <v>25.580347700000001</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259">
+      <c r="B258" s="3">
+        <v>-11.10280788</v>
+      </c>
+      <c r="C258" s="3">
+        <v>22.14834553</v>
+      </c>
+      <c r="G258" s="2"/>
+      <c r="H258" s="3"/>
+      <c r="I258" s="3"/>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A259" s="2">
         <v>4630</v>
       </c>
-      <c r="B259">
-        <v>-13.576788949999999</v>
-      </c>
-      <c r="C259">
-        <v>26.481389419999999</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260">
+      <c r="B259" s="3">
+        <v>-9.4481037529999998</v>
+      </c>
+      <c r="C259" s="3">
+        <v>22.772723320000001</v>
+      </c>
+      <c r="G259" s="2"/>
+      <c r="H259" s="3"/>
+      <c r="I259" s="3"/>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A260" s="2">
         <v>4631</v>
       </c>
-      <c r="B260">
-        <v>-12.34903211</v>
-      </c>
-      <c r="C260">
-        <v>26.867519819999998</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261">
+      <c r="B260" s="3">
+        <v>-7.7106724619999998</v>
+      </c>
+      <c r="C260" s="3">
+        <v>22.863798079999999</v>
+      </c>
+      <c r="G260" s="2"/>
+      <c r="H260" s="3"/>
+      <c r="I260" s="3"/>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A261" s="2">
         <v>4632</v>
       </c>
-      <c r="B261">
-        <v>-12.020107380000001</v>
-      </c>
-      <c r="C261">
-        <v>26.258995250000002</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262">
+      <c r="B261" s="3">
+        <v>-8.0434508969999996</v>
+      </c>
+      <c r="C261" s="3">
+        <v>22.049979919999998</v>
+      </c>
+      <c r="G261" s="2"/>
+      <c r="H261" s="3"/>
+      <c r="I261" s="3"/>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A262" s="2">
         <v>4633</v>
       </c>
-      <c r="B262">
-        <v>-11.626446960000001</v>
-      </c>
-      <c r="C262">
-        <v>26.124065479999999</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263">
+      <c r="B262" s="3">
+        <v>-7.5774204259999998</v>
+      </c>
+      <c r="C262" s="3">
+        <v>22.036671399999999</v>
+      </c>
+      <c r="G262" s="2"/>
+      <c r="H262" s="3"/>
+      <c r="I262" s="3"/>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A263" s="2">
         <v>4634</v>
       </c>
-      <c r="B263">
-        <v>-13.145114939999999</v>
-      </c>
-      <c r="C263">
-        <v>26.02481057</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264">
+      <c r="B263" s="3">
+        <v>-8.7853427590000006</v>
+      </c>
+      <c r="C263" s="3">
+        <v>22.380016170000001</v>
+      </c>
+      <c r="G263" s="2"/>
+      <c r="H263" s="3"/>
+      <c r="I263" s="3"/>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A264" s="2">
         <v>4635</v>
       </c>
-      <c r="B264">
-        <v>-12.590282970000001</v>
-      </c>
-      <c r="C264">
-        <v>25.7782825</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265">
+      <c r="B264" s="3">
+        <v>-8.5744572550000004</v>
+      </c>
+      <c r="C264" s="3">
+        <v>21.900198889999999</v>
+      </c>
+      <c r="G264" s="2"/>
+      <c r="H264" s="3"/>
+      <c r="I264" s="3"/>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A265" s="2">
         <v>4636</v>
       </c>
-      <c r="B265">
-        <v>-12.79672579</v>
-      </c>
-      <c r="C265">
-        <v>26.2013824</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266">
+      <c r="B265" s="3">
+        <v>-8.9363355169999998</v>
+      </c>
+      <c r="C265" s="3">
+        <v>22.479028639999999</v>
+      </c>
+      <c r="G265" s="2"/>
+      <c r="H265" s="3"/>
+      <c r="I265" s="3"/>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A266" s="2">
         <v>4637</v>
       </c>
-      <c r="B266">
-        <v>-14.5363925</v>
-      </c>
-      <c r="C266">
-        <v>26.01434763</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267">
+      <c r="B266" s="3">
+        <v>-10.16122624</v>
+      </c>
+      <c r="C266" s="3">
+        <v>22.71883283</v>
+      </c>
+      <c r="G266" s="2"/>
+      <c r="H266" s="3"/>
+      <c r="I266" s="3"/>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A267" s="2">
         <v>4638</v>
       </c>
-      <c r="B267">
-        <v>-19.456378430000001</v>
-      </c>
-      <c r="C267">
-        <v>26.441072609999999</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268">
+      <c r="B267" s="3">
+        <v>-13.953627539999999</v>
+      </c>
+      <c r="C267" s="3">
+        <v>22.673391070000001</v>
+      </c>
+      <c r="G267" s="2"/>
+      <c r="H267" s="3"/>
+      <c r="I267" s="3"/>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A268" s="2">
         <v>4639</v>
       </c>
-      <c r="B268">
-        <v>-18.842273380000002</v>
-      </c>
-      <c r="C268">
-        <v>26.118757169999999</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269">
+      <c r="B268" s="3">
+        <v>-13.516325289999999</v>
+      </c>
+      <c r="C268" s="3">
+        <v>22.345814870000002</v>
+      </c>
+      <c r="G268" s="2"/>
+      <c r="H268" s="3"/>
+      <c r="I268" s="3"/>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A269" s="2">
         <v>4640</v>
       </c>
-      <c r="B269">
-        <v>-19.97280769</v>
-      </c>
-      <c r="C269">
-        <v>26.100877059999998</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270">
+      <c r="B269" s="3">
+        <v>-14.68069313</v>
+      </c>
+      <c r="C269" s="3">
+        <v>22.483238440000001</v>
+      </c>
+      <c r="G269" s="2"/>
+      <c r="H269" s="3"/>
+      <c r="I269" s="3"/>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A270" s="2">
         <v>4641</v>
       </c>
-      <c r="B270">
-        <v>-19.086395880000001</v>
-      </c>
-      <c r="C270">
-        <v>26.967624730000001</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271">
+      <c r="B270" s="3">
+        <v>-13.633502289999999</v>
+      </c>
+      <c r="C270" s="3">
+        <v>23.396598440000002</v>
+      </c>
+      <c r="G270" s="2"/>
+      <c r="H270" s="3"/>
+      <c r="I270" s="3"/>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A271" s="2">
         <v>4642</v>
       </c>
-      <c r="B271">
-        <v>-19.810327210000001</v>
-      </c>
-      <c r="C271">
-        <v>26.851729240000001</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272">
+      <c r="B271" s="3">
+        <v>-14.29866026</v>
+      </c>
+      <c r="C271" s="3">
+        <v>23.102727810000001</v>
+      </c>
+      <c r="G271" s="2"/>
+      <c r="H271" s="3"/>
+      <c r="I271" s="3"/>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A272" s="2">
         <v>4643</v>
       </c>
-      <c r="B272">
-        <v>-20.71460429</v>
-      </c>
-      <c r="C272">
-        <v>26.614829589999999</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273">
+      <c r="B272" s="3">
+        <v>-15.640249499999999</v>
+      </c>
+      <c r="C272" s="3">
+        <v>22.818352010000002</v>
+      </c>
+      <c r="G272" s="2"/>
+      <c r="H272" s="3"/>
+      <c r="I272" s="3"/>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A273" s="2">
         <v>4644</v>
       </c>
-      <c r="B273">
-        <v>-19.744812069999998</v>
-      </c>
-      <c r="C273">
-        <v>24.970262739999999</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274">
+      <c r="B273" s="3">
+        <v>-14.78185042</v>
+      </c>
+      <c r="C273" s="3">
+        <v>21.699233530000001</v>
+      </c>
+      <c r="G273" s="2"/>
+      <c r="H273" s="3"/>
+      <c r="I273" s="3"/>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A274" s="2">
         <v>4645</v>
       </c>
-      <c r="B274">
-        <v>-11.80174178</v>
-      </c>
-      <c r="C274">
-        <v>25.36256178</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275">
+      <c r="B274" s="3">
+        <v>-7.4307569740000003</v>
+      </c>
+      <c r="C274" s="3">
+        <v>21.867273140000002</v>
+      </c>
+      <c r="G274" s="2"/>
+      <c r="H274" s="3"/>
+      <c r="I274" s="3"/>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A275" s="2">
         <v>4646</v>
       </c>
-      <c r="B275">
-        <v>-12.627011</v>
-      </c>
-      <c r="C275">
-        <v>25.35909887</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276">
+      <c r="B275" s="3">
+        <v>-8.3392310629999997</v>
+      </c>
+      <c r="C275" s="3">
+        <v>22.166358809999998</v>
+      </c>
+      <c r="G275" s="2"/>
+      <c r="H275" s="3"/>
+      <c r="I275" s="3"/>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A276" s="2">
         <v>4647</v>
       </c>
-      <c r="B276">
-        <v>-16.097475589999998</v>
-      </c>
-      <c r="C276">
-        <v>24.883488029999999</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277">
+      <c r="B276" s="3">
+        <v>-11.77039458</v>
+      </c>
+      <c r="C276" s="3">
+        <v>21.852356780000001</v>
+      </c>
+      <c r="G276" s="2"/>
+      <c r="H276" s="3"/>
+      <c r="I276" s="3"/>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A277" s="2">
         <v>4648</v>
       </c>
-      <c r="B277">
-        <v>-14.64272942</v>
-      </c>
-      <c r="C277">
-        <v>26.26135416</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278">
+      <c r="B277" s="3">
+        <v>-10.40466215</v>
+      </c>
+      <c r="C277" s="3">
+        <v>22.687199880000001</v>
+      </c>
+      <c r="G277" s="2"/>
+      <c r="H277" s="3"/>
+      <c r="I277" s="3"/>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A278" s="2">
         <v>4649</v>
       </c>
-      <c r="B278">
-        <v>-14.91560597</v>
-      </c>
-      <c r="C278">
-        <v>25.65885467</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279">
+      <c r="B278" s="3">
+        <v>-10.45588234</v>
+      </c>
+      <c r="C278" s="3">
+        <v>21.88897029</v>
+      </c>
+      <c r="G278" s="2"/>
+      <c r="H278" s="3"/>
+      <c r="I278" s="3"/>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A279" s="2">
         <v>4650</v>
       </c>
-      <c r="B279">
-        <v>-16.56077208</v>
-      </c>
-      <c r="C279">
-        <v>25.237208209999999</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280">
+      <c r="B279" s="3">
+        <v>-11.92495585</v>
+      </c>
+      <c r="C279" s="3">
+        <v>21.823347080000001</v>
+      </c>
+      <c r="G279" s="2"/>
+      <c r="H279" s="3"/>
+      <c r="I279" s="3"/>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A280" s="2">
         <v>4651</v>
       </c>
-      <c r="B280">
-        <v>-16.804695049999999</v>
-      </c>
-      <c r="C280">
-        <v>24.699212989999999</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281">
+      <c r="B280" s="3">
+        <v>-12.37889099</v>
+      </c>
+      <c r="C280" s="3">
+        <v>21.738539639999999</v>
+      </c>
+      <c r="G280" s="2"/>
+      <c r="H280" s="3"/>
+      <c r="I280" s="3"/>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A281" s="2">
         <v>5001</v>
       </c>
-      <c r="B281">
-        <v>-24.061309380000001</v>
-      </c>
-      <c r="C281">
-        <v>28.030771659999999</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282">
+      <c r="B281" s="3">
+        <v>-16.672265360000001</v>
+      </c>
+      <c r="C281" s="3">
+        <v>23.232673170000002</v>
+      </c>
+      <c r="G281" s="2"/>
+      <c r="H281" s="3"/>
+      <c r="I281" s="3"/>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A282" s="2">
         <v>5006</v>
       </c>
-      <c r="B282">
-        <v>-24.01905833</v>
-      </c>
-      <c r="C282">
-        <v>28.806429609999999</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283">
+      <c r="B282" s="3">
+        <v>-16.971964530000001</v>
+      </c>
+      <c r="C282" s="3">
+        <v>23.28915061</v>
+      </c>
+      <c r="G282" s="2"/>
+      <c r="H282" s="3"/>
+      <c r="I282" s="3"/>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A283" s="2">
         <v>5007</v>
       </c>
-      <c r="B283">
-        <v>-21.049103899999999</v>
-      </c>
-      <c r="C283">
-        <v>27.970113649999998</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284">
+      <c r="B283" s="3">
+        <v>-14.871959909999999</v>
+      </c>
+      <c r="C283" s="3">
+        <v>22.73701982</v>
+      </c>
+      <c r="G283" s="2"/>
+      <c r="H283" s="3"/>
+      <c r="I283" s="3"/>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A284" s="2">
         <v>5014</v>
       </c>
-      <c r="B284">
-        <v>-14.036192270000001</v>
-      </c>
-      <c r="C284">
-        <v>24.433467149999998</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285">
+      <c r="B284" s="3">
+        <v>-9.2449290610000006</v>
+      </c>
+      <c r="C284" s="3">
+        <v>20.436519189999999</v>
+      </c>
+      <c r="G284" s="2"/>
+      <c r="H284" s="3"/>
+      <c r="I284" s="3"/>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A285" s="2">
         <v>5020</v>
       </c>
-      <c r="B285">
-        <v>-19.958851209999999</v>
-      </c>
-      <c r="C285">
-        <v>26.96568087</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286">
+      <c r="B285" s="3">
+        <v>-13.264150470000001</v>
+      </c>
+      <c r="C285" s="3">
+        <v>22.450362559999999</v>
+      </c>
+      <c r="G285" s="2"/>
+      <c r="H285" s="3"/>
+      <c r="I285" s="3"/>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A286" s="2">
         <v>5021</v>
       </c>
-      <c r="B286">
-        <v>-27.268136139999999</v>
-      </c>
-      <c r="C286">
-        <v>24.945555330000001</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287">
+      <c r="B286" s="3">
+        <v>-21.299805159999998</v>
+      </c>
+      <c r="C286" s="3">
+        <v>20.938364929999999</v>
+      </c>
+      <c r="G286" s="2"/>
+      <c r="H286" s="3"/>
+      <c r="I286" s="3"/>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A287" s="2">
         <v>5022</v>
       </c>
-      <c r="B287">
-        <v>-27.142359039999999</v>
-      </c>
-      <c r="C287">
-        <v>25.479384190000001</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288">
+      <c r="B287" s="3">
+        <v>-20.474824730000002</v>
+      </c>
+      <c r="C287" s="3">
+        <v>21.083852409999999</v>
+      </c>
+      <c r="G287" s="2"/>
+      <c r="H287" s="3"/>
+      <c r="I287" s="3"/>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A288" s="2">
         <v>5025</v>
       </c>
-      <c r="B288">
-        <v>-37.4986769</v>
-      </c>
-      <c r="C288">
-        <v>24.484034829999999</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289">
+      <c r="B288" s="3">
+        <v>-28.594053500000001</v>
+      </c>
+      <c r="C288" s="3">
+        <v>20.153343039999999</v>
+      </c>
+      <c r="G288" s="2"/>
+      <c r="H288" s="3"/>
+      <c r="I288" s="3"/>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A289" s="2">
         <v>5026</v>
       </c>
-      <c r="B289">
-        <v>-33.362041689999998</v>
-      </c>
-      <c r="C289">
-        <v>26.005206470000001</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290">
+      <c r="B289" s="3">
+        <v>-23.9282225</v>
+      </c>
+      <c r="C289" s="3">
+        <v>21.309901069999999</v>
+      </c>
+      <c r="G289" s="2"/>
+      <c r="H289" s="3"/>
+      <c r="I289" s="3"/>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A290" s="2">
         <v>5027</v>
       </c>
-      <c r="B290">
-        <v>-26.896937139999999</v>
-      </c>
-      <c r="C290">
-        <v>27.292093250000001</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291">
+      <c r="B290" s="3">
+        <v>-18.47911435</v>
+      </c>
+      <c r="C290" s="3">
+        <v>23.012117079999999</v>
+      </c>
+      <c r="G290" s="2"/>
+      <c r="H290" s="3"/>
+      <c r="I290" s="3"/>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A291" s="2">
         <v>5028</v>
       </c>
-      <c r="B291">
-        <v>-25.75713215</v>
-      </c>
-      <c r="C291">
-        <v>28.166118699999998</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292">
+      <c r="B291" s="3">
+        <v>-17.599870339999999</v>
+      </c>
+      <c r="C291" s="3">
+        <v>23.296790470000001</v>
+      </c>
+      <c r="G291" s="2"/>
+      <c r="H291" s="3"/>
+      <c r="I291" s="3"/>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A292" s="2">
         <v>5029</v>
       </c>
-      <c r="B292">
-        <v>-23.782771579999999</v>
-      </c>
-      <c r="C292">
-        <v>26.577573640000001</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293">
+      <c r="B292" s="3">
+        <v>-15.929875640000001</v>
+      </c>
+      <c r="C292" s="3">
+        <v>22.391887239999999</v>
+      </c>
+      <c r="G292" s="2"/>
+      <c r="H292" s="3"/>
+      <c r="I292" s="3"/>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A293" s="2">
         <v>5031</v>
       </c>
-      <c r="B293">
-        <v>-25.405760600000001</v>
-      </c>
-      <c r="C293">
-        <v>28.77925291</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294">
+      <c r="B293" s="3">
+        <v>-17.220240109999999</v>
+      </c>
+      <c r="C293" s="3">
+        <v>23.430316699999999</v>
+      </c>
+      <c r="G293" s="2"/>
+      <c r="H293" s="3"/>
+      <c r="I293" s="3"/>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A294" s="2">
         <v>5032</v>
       </c>
-      <c r="B294">
-        <v>-28.467878559999999</v>
-      </c>
-      <c r="C294">
-        <v>28.063873560000001</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295">
+      <c r="B294" s="3">
+        <v>-19.261047179999998</v>
+      </c>
+      <c r="C294" s="3">
+        <v>23.224810189999999</v>
+      </c>
+      <c r="G294" s="2"/>
+      <c r="H294" s="3"/>
+      <c r="I294" s="3"/>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A295" s="2">
         <v>5033</v>
       </c>
-      <c r="B295">
-        <v>-33.329872119999997</v>
-      </c>
-      <c r="C295">
-        <v>25.423867449999999</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296">
+      <c r="B295" s="3">
+        <v>-25.218548869999999</v>
+      </c>
+      <c r="C295" s="3">
+        <v>20.626249690000002</v>
+      </c>
+      <c r="G295" s="2"/>
+      <c r="H295" s="3"/>
+      <c r="I295" s="3"/>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A296" s="2">
         <v>5034</v>
       </c>
-      <c r="B296">
-        <v>-28.49564917</v>
-      </c>
-      <c r="C296">
-        <v>28.730196509999999</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297">
+      <c r="B296" s="3">
+        <v>-19.245813439999999</v>
+      </c>
+      <c r="C296" s="3">
+        <v>23.70426977</v>
+      </c>
+      <c r="G296" s="2"/>
+      <c r="H296" s="3"/>
+      <c r="I296" s="3"/>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A297" s="2">
         <v>5035</v>
       </c>
-      <c r="B297">
-        <v>-25.433393590000001</v>
-      </c>
-      <c r="C297">
-        <v>29.208136029999999</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298">
+      <c r="B297" s="3">
+        <v>-17.110821130000001</v>
+      </c>
+      <c r="C297" s="3">
+        <v>23.554941029999998</v>
+      </c>
+      <c r="G297" s="2"/>
+      <c r="H297" s="3"/>
+      <c r="I297" s="3"/>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A298" s="2">
         <v>5036</v>
       </c>
-      <c r="B298">
-        <v>-25.19551272</v>
-      </c>
-      <c r="C298">
-        <v>29.699174630000002</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299">
+      <c r="B298" s="3">
+        <v>-16.70181801</v>
+      </c>
+      <c r="C298" s="3">
+        <v>24.213115439999999</v>
+      </c>
+      <c r="G298" s="2"/>
+      <c r="H298" s="3"/>
+      <c r="I298" s="3"/>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A299" s="2">
         <v>5037</v>
       </c>
-      <c r="B299">
-        <v>-24.063845709999999</v>
-      </c>
-      <c r="C299">
-        <v>28.997669800000001</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300">
+      <c r="B299" s="3">
+        <v>-16.798168010000001</v>
+      </c>
+      <c r="C299" s="3">
+        <v>23.36630224</v>
+      </c>
+      <c r="G299" s="2"/>
+      <c r="H299" s="3"/>
+      <c r="I299" s="3"/>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A300" s="2">
         <v>5038</v>
       </c>
-      <c r="B300">
-        <v>-24.946514029999999</v>
-      </c>
-      <c r="C300">
-        <v>28.932034269999999</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301">
+      <c r="B300" s="3">
+        <v>-17.12418804</v>
+      </c>
+      <c r="C300" s="3">
+        <v>23.385515250000001</v>
+      </c>
+      <c r="G300" s="2"/>
+      <c r="H300" s="3"/>
+      <c r="I300" s="3"/>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A301" s="2">
         <v>5041</v>
       </c>
-      <c r="B301">
-        <v>-27.94808197</v>
-      </c>
-      <c r="C301">
-        <v>28.732629020000001</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302">
+      <c r="B301" s="3">
+        <v>-20.5934417</v>
+      </c>
+      <c r="C301" s="3">
+        <v>23.464852130000001</v>
+      </c>
+      <c r="G301" s="2"/>
+      <c r="H301" s="3"/>
+      <c r="I301" s="3"/>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A302" s="2">
         <v>5042</v>
       </c>
-      <c r="B302">
-        <v>-33.867095839999998</v>
-      </c>
-      <c r="C302">
-        <v>26.535458429999998</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303">
+      <c r="B302" s="3">
+        <v>-25.48816674</v>
+      </c>
+      <c r="C302" s="3">
+        <v>21.553882290000001</v>
+      </c>
+      <c r="G302" s="2"/>
+      <c r="H302" s="3"/>
+      <c r="I302" s="3"/>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A303" s="2">
         <v>5043</v>
       </c>
-      <c r="B303">
-        <v>-33.335005430000002</v>
-      </c>
-      <c r="C303">
-        <v>26.5183322</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304">
+      <c r="B303" s="3">
+        <v>-25.762537500000001</v>
+      </c>
+      <c r="C303" s="3">
+        <v>21.25039868</v>
+      </c>
+      <c r="G303" s="2"/>
+      <c r="H303" s="3"/>
+      <c r="I303" s="3"/>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A304" s="2">
         <v>5044</v>
       </c>
-      <c r="B304">
-        <v>-31.508570280000001</v>
-      </c>
-      <c r="C304">
-        <v>27.9997018</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305">
+      <c r="B304" s="3">
+        <v>-22.766842329999999</v>
+      </c>
+      <c r="C304" s="3">
+        <v>22.64337811</v>
+      </c>
+      <c r="G304" s="2"/>
+      <c r="H304" s="3"/>
+      <c r="I304" s="3"/>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A305" s="2">
         <v>5045</v>
       </c>
-      <c r="B305">
-        <v>-27.459180570000001</v>
-      </c>
-      <c r="C305">
-        <v>28.245531280000002</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306">
+      <c r="B305" s="3">
+        <v>-19.73051697</v>
+      </c>
+      <c r="C305" s="3">
+        <v>23.144713549999999</v>
+      </c>
+      <c r="G305" s="2"/>
+      <c r="H305" s="3"/>
+      <c r="I305" s="3"/>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A306" s="2">
         <v>5046</v>
       </c>
-      <c r="B306">
-        <v>-26.613452949999999</v>
-      </c>
-      <c r="C306">
-        <v>28.114494090000001</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307">
+      <c r="B306" s="3">
+        <v>-18.678103629999999</v>
+      </c>
+      <c r="C306" s="3">
+        <v>23.082204839999999</v>
+      </c>
+      <c r="G306" s="2"/>
+      <c r="H306" s="3"/>
+      <c r="I306" s="3"/>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A307" s="2">
         <v>5047</v>
       </c>
-      <c r="B307">
-        <v>-25.350951640000002</v>
-      </c>
-      <c r="C307">
-        <v>28.18602761</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308">
+      <c r="B307" s="3">
+        <v>-17.829187409999999</v>
+      </c>
+      <c r="C307" s="3">
+        <v>22.886075529999999</v>
+      </c>
+      <c r="G307" s="2"/>
+      <c r="H307" s="3"/>
+      <c r="I307" s="3"/>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A308" s="2">
         <v>5049</v>
       </c>
-      <c r="B308">
-        <v>-18.41525897</v>
-      </c>
-      <c r="C308">
-        <v>26.534031410000001</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309">
+      <c r="B308" s="3">
+        <v>-11.648474439999999</v>
+      </c>
+      <c r="C308" s="3">
+        <v>21.928380570000002</v>
+      </c>
+      <c r="G308" s="2"/>
+      <c r="H308" s="3"/>
+      <c r="I308" s="3"/>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A309" s="2">
         <v>5052</v>
       </c>
-      <c r="B309">
-        <v>-17.030075950000001</v>
-      </c>
-      <c r="C309">
-        <v>26.50988727</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310">
+      <c r="B309" s="3">
+        <v>-12.2273912</v>
+      </c>
+      <c r="C309" s="3">
+        <v>21.958783870000001</v>
+      </c>
+      <c r="G309" s="2"/>
+      <c r="H309" s="3"/>
+      <c r="I309" s="3"/>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A310" s="2">
         <v>5053</v>
       </c>
-      <c r="B310">
-        <v>-22.958368419999999</v>
-      </c>
-      <c r="C310">
-        <v>28.609417530000002</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311">
+      <c r="B310" s="3">
+        <v>-16.160904070000001</v>
+      </c>
+      <c r="C310" s="3">
+        <v>22.8799125</v>
+      </c>
+      <c r="G310" s="2"/>
+      <c r="H310" s="3"/>
+      <c r="I310" s="3"/>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A311" s="2">
         <v>5054</v>
       </c>
-      <c r="B311">
-        <v>-20.47848286</v>
-      </c>
-      <c r="C311">
-        <v>27.428033299999999</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312">
+      <c r="B311" s="3">
+        <v>-13.871208620000001</v>
+      </c>
+      <c r="C311" s="3">
+        <v>22.5741771</v>
+      </c>
+      <c r="G311" s="2"/>
+      <c r="H311" s="3"/>
+      <c r="I311" s="3"/>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A312" s="2">
         <v>5055</v>
       </c>
-      <c r="B312">
-        <v>-18.456611760000001</v>
-      </c>
-      <c r="C312">
-        <v>26.594901839999999</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313">
+      <c r="B312" s="3">
+        <v>-13.48001389</v>
+      </c>
+      <c r="C312" s="3">
+        <v>21.915554</v>
+      </c>
+      <c r="G312" s="2"/>
+      <c r="H312" s="3"/>
+      <c r="I312" s="3"/>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A313" s="2">
         <v>5056</v>
       </c>
-      <c r="B313">
-        <v>-15.629185489999999</v>
-      </c>
-      <c r="C313">
-        <v>25.455384769999998</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314">
+      <c r="B313" s="3">
+        <v>-10.8012701</v>
+      </c>
+      <c r="C313" s="3">
+        <v>21.219068149999998</v>
+      </c>
+      <c r="G313" s="2"/>
+      <c r="H313" s="3"/>
+      <c r="I313" s="3"/>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A314" s="2">
         <v>5057</v>
       </c>
-      <c r="B314">
-        <v>-17.18271391</v>
-      </c>
-      <c r="C314">
-        <v>25.99798418</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315">
+      <c r="B314" s="3">
+        <v>-11.68949409</v>
+      </c>
+      <c r="C314" s="3">
+        <v>21.48237915</v>
+      </c>
+      <c r="G314" s="2"/>
+      <c r="H314" s="3"/>
+      <c r="I314" s="3"/>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A315" s="2">
         <v>5058</v>
       </c>
-      <c r="B315">
-        <v>-18.429744209999999</v>
-      </c>
-      <c r="C315">
-        <v>27.99100078</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316">
+      <c r="B315" s="3">
+        <v>-12.009543989999999</v>
+      </c>
+      <c r="C315" s="3">
+        <v>22.75977133</v>
+      </c>
+      <c r="G315" s="2"/>
+      <c r="H315" s="3"/>
+      <c r="I315" s="3"/>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A316" s="2">
         <v>5059</v>
       </c>
-      <c r="B316">
-        <v>-22.879711270000001</v>
-      </c>
-      <c r="C316">
-        <v>26.669251549999998</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317">
+      <c r="B316" s="3">
+        <v>-15.995993159999999</v>
+      </c>
+      <c r="C316" s="3">
+        <v>22.415704529999999</v>
+      </c>
+      <c r="G316" s="2"/>
+      <c r="H316" s="3"/>
+      <c r="I316" s="3"/>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A317" s="2">
         <v>5060</v>
       </c>
-      <c r="B317">
-        <v>-18.623566069999999</v>
-      </c>
-      <c r="C317">
-        <v>27.35157195</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318">
+      <c r="B317" s="3">
+        <v>-13.270971080000001</v>
+      </c>
+      <c r="C317" s="3">
+        <v>22.354897050000002</v>
+      </c>
+      <c r="G317" s="2"/>
+      <c r="H317" s="3"/>
+      <c r="I317" s="3"/>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A318" s="2">
         <v>5061</v>
       </c>
-      <c r="B318">
-        <v>-22.115180349999999</v>
-      </c>
-      <c r="C318">
-        <v>27.79777911</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319">
+      <c r="B318" s="3">
+        <v>-15.96968253</v>
+      </c>
+      <c r="C318" s="3">
+        <v>23.090053820000001</v>
+      </c>
+      <c r="G318" s="2"/>
+      <c r="H318" s="3"/>
+      <c r="I318" s="3"/>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A319" s="2">
         <v>5401</v>
       </c>
-      <c r="B319">
-        <v>-15.22736183</v>
-      </c>
-      <c r="C319">
-        <v>23.71394651</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320">
+      <c r="B319" s="3">
+        <v>-12.02887323</v>
+      </c>
+      <c r="C319" s="3">
+        <v>19.540391110000002</v>
+      </c>
+      <c r="G319" s="2"/>
+      <c r="H319" s="3"/>
+      <c r="I319" s="3"/>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A320" s="2">
         <v>5402</v>
       </c>
-      <c r="B320">
-        <v>-14.9434945</v>
-      </c>
-      <c r="C320">
-        <v>24.71925637</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321">
+      <c r="B320" s="3">
+        <v>-12.051396990000001</v>
+      </c>
+      <c r="C320" s="3">
+        <v>20.71549602</v>
+      </c>
+      <c r="G320" s="2"/>
+      <c r="H320" s="3"/>
+      <c r="I320" s="3"/>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A321" s="2">
         <v>5403</v>
       </c>
-      <c r="B321">
-        <v>-30.360728680000001</v>
-      </c>
-      <c r="C321">
-        <v>26.788472949999999</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322">
+      <c r="B321" s="3">
+        <v>-23.28188286</v>
+      </c>
+      <c r="C321" s="3">
+        <v>21.87366819</v>
+      </c>
+      <c r="G321" s="2"/>
+      <c r="H321" s="3"/>
+      <c r="I321" s="3"/>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A322" s="2">
         <v>5404</v>
       </c>
-      <c r="B322">
-        <v>-27.761140860000001</v>
-      </c>
-      <c r="C322">
-        <v>20.84346459</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323">
+      <c r="B322" s="3">
+        <v>-19.37268018</v>
+      </c>
+      <c r="C322" s="3">
+        <v>17.670534079999999</v>
+      </c>
+      <c r="G322" s="2"/>
+      <c r="H322" s="3"/>
+      <c r="I322" s="3"/>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A323" s="2">
         <v>5405</v>
       </c>
-      <c r="B323">
-        <v>-32.244922879999997</v>
-      </c>
-      <c r="C323">
-        <v>22.662734319999998</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324">
+      <c r="B323" s="3">
+        <v>-23.414743510000001</v>
+      </c>
+      <c r="C323" s="3">
+        <v>19.126906819999999</v>
+      </c>
+      <c r="G323" s="2"/>
+      <c r="H323" s="3"/>
+      <c r="I323" s="3"/>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A324" s="2">
         <v>5406</v>
       </c>
-      <c r="B324">
-        <v>-27.574034749999999</v>
-      </c>
-      <c r="C324">
-        <v>24.42716369</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325">
+      <c r="B324" s="3">
+        <v>-17.770864499999998</v>
+      </c>
+      <c r="C324" s="3">
+        <v>19.690433639999998</v>
+      </c>
+      <c r="G324" s="2"/>
+      <c r="H324" s="3"/>
+      <c r="I324" s="3"/>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A325" s="2">
         <v>5411</v>
       </c>
-      <c r="B325">
-        <v>-14.14593174</v>
-      </c>
-      <c r="C325">
-        <v>26.1278702</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326">
+      <c r="B325" s="3">
+        <v>-11.71266045</v>
+      </c>
+      <c r="C325" s="3">
+        <v>21.667066500000001</v>
+      </c>
+      <c r="G325" s="2"/>
+      <c r="H325" s="3"/>
+      <c r="I325" s="3"/>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A326" s="2">
         <v>5412</v>
       </c>
-      <c r="B326">
-        <v>-15.8848164</v>
-      </c>
-      <c r="C326">
-        <v>26.529472470000002</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327">
+      <c r="B326" s="3">
+        <v>-13.25423634</v>
+      </c>
+      <c r="C326" s="3">
+        <v>21.957836969999999</v>
+      </c>
+      <c r="G326" s="2"/>
+      <c r="H326" s="3"/>
+      <c r="I326" s="3"/>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A327" s="2">
         <v>5413</v>
       </c>
-      <c r="B327">
-        <v>-18.630383729999998</v>
-      </c>
-      <c r="C327">
-        <v>27.054357320000001</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328">
+      <c r="B327" s="3">
+        <v>-15.998705770000001</v>
+      </c>
+      <c r="C327" s="3">
+        <v>22.389180159999999</v>
+      </c>
+      <c r="G327" s="2"/>
+      <c r="H327" s="3"/>
+      <c r="I327" s="3"/>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A328" s="2">
         <v>5414</v>
       </c>
-      <c r="B328">
-        <v>-19.42151943</v>
-      </c>
-      <c r="C328">
-        <v>24.948629329999999</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329">
+      <c r="B328" s="3">
+        <v>-16.098115570000001</v>
+      </c>
+      <c r="C328" s="3">
+        <v>21.123681739999999</v>
+      </c>
+      <c r="G328" s="2"/>
+      <c r="H328" s="3"/>
+      <c r="I328" s="3"/>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A329" s="2">
         <v>5415</v>
       </c>
-      <c r="B329">
-        <v>-20.775233159999999</v>
-      </c>
-      <c r="C329">
-        <v>25.572407080000001</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330">
+      <c r="B329" s="3">
+        <v>-18.017365030000001</v>
+      </c>
+      <c r="C329" s="3">
+        <v>21.360770080000002</v>
+      </c>
+      <c r="G329" s="2"/>
+      <c r="H329" s="3"/>
+      <c r="I329" s="3"/>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A330" s="2">
         <v>5416</v>
       </c>
-      <c r="B330">
-        <v>-25.61623054</v>
-      </c>
-      <c r="C330">
-        <v>27.100626729999998</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331">
+      <c r="B330" s="3">
+        <v>-21.780285509999999</v>
+      </c>
+      <c r="C330" s="3">
+        <v>22.249618160000001</v>
+      </c>
+      <c r="G330" s="2"/>
+      <c r="H330" s="3"/>
+      <c r="I330" s="3"/>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A331" s="2">
         <v>5417</v>
       </c>
-      <c r="B331">
-        <v>-20.78757787</v>
-      </c>
-      <c r="C331">
-        <v>24.838837940000001</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332">
+      <c r="B331" s="3">
+        <v>-17.16232746</v>
+      </c>
+      <c r="C331" s="3">
+        <v>20.758641600000001</v>
+      </c>
+      <c r="G331" s="2"/>
+      <c r="H331" s="3"/>
+      <c r="I331" s="3"/>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A332" s="2">
         <v>5418</v>
       </c>
-      <c r="B332">
-        <v>-25.053644800000001</v>
-      </c>
-      <c r="C332">
-        <v>25.09264486</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333">
+      <c r="B332" s="3">
+        <v>-20.181826170000001</v>
+      </c>
+      <c r="C332" s="3">
+        <v>20.647747599999999</v>
+      </c>
+      <c r="G332" s="2"/>
+      <c r="H332" s="3"/>
+      <c r="I332" s="3"/>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A333" s="2">
         <v>5419</v>
       </c>
-      <c r="B333">
-        <v>-23.12339227</v>
-      </c>
-      <c r="C333">
-        <v>25.087530059999999</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334">
+      <c r="B333" s="3">
+        <v>-18.274956199999998</v>
+      </c>
+      <c r="C333" s="3">
+        <v>20.461100309999999</v>
+      </c>
+      <c r="G333" s="2"/>
+      <c r="H333" s="3"/>
+      <c r="I333" s="3"/>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A334" s="2">
         <v>5420</v>
       </c>
-      <c r="B334">
-        <v>-21.735535280000001</v>
-      </c>
-      <c r="C334">
-        <v>25.127344910000001</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335">
+      <c r="B334" s="3">
+        <v>-17.24553208</v>
+      </c>
+      <c r="C334" s="3">
+        <v>20.592046889999999</v>
+      </c>
+      <c r="G334" s="2"/>
+      <c r="H334" s="3"/>
+      <c r="I334" s="3"/>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A335" s="2">
         <v>5421</v>
       </c>
-      <c r="B335">
-        <v>-19.730165249999999</v>
-      </c>
-      <c r="C335">
-        <v>23.948174259999998</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336">
+      <c r="B335" s="3">
+        <v>-15.711694789999999</v>
+      </c>
+      <c r="C335" s="3">
+        <v>19.8525648</v>
+      </c>
+      <c r="G335" s="2"/>
+      <c r="H335" s="3"/>
+      <c r="I335" s="3"/>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A336" s="2">
         <v>5422</v>
       </c>
-      <c r="B336">
-        <v>-22.438106980000001</v>
-      </c>
-      <c r="C336">
-        <v>24.823646490000002</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337">
+      <c r="B336" s="3">
+        <v>-18.795282060000002</v>
+      </c>
+      <c r="C336" s="3">
+        <v>20.2890482</v>
+      </c>
+      <c r="G336" s="2"/>
+      <c r="H336" s="3"/>
+      <c r="I336" s="3"/>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A337" s="2">
         <v>5423</v>
       </c>
-      <c r="B337">
-        <v>-13.470442569999999</v>
-      </c>
-      <c r="C337">
-        <v>24.141316410000002</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338">
+      <c r="B337" s="3">
+        <v>-10.23793818</v>
+      </c>
+      <c r="C337" s="3">
+        <v>19.471770119999999</v>
+      </c>
+      <c r="G337" s="2"/>
+      <c r="H337" s="3"/>
+      <c r="I337" s="3"/>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A338" s="2">
         <v>5424</v>
       </c>
-      <c r="B338">
-        <v>-19.733980859999999</v>
-      </c>
-      <c r="C338">
-        <v>25.068200149999999</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A339">
+      <c r="B338" s="3">
+        <v>-16.828040560000002</v>
+      </c>
+      <c r="C338" s="3">
+        <v>20.280347089999999</v>
+      </c>
+      <c r="G338" s="2"/>
+      <c r="H338" s="3"/>
+      <c r="I338" s="3"/>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A339" s="2">
         <v>5425</v>
       </c>
-      <c r="B339">
-        <v>-23.218011959999998</v>
-      </c>
-      <c r="C339">
-        <v>25.095892859999999</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A340">
+      <c r="B339" s="3">
+        <v>-19.623581359999999</v>
+      </c>
+      <c r="C339" s="3">
+        <v>20.46533226</v>
+      </c>
+      <c r="G339" s="2"/>
+      <c r="H339" s="3"/>
+      <c r="I339" s="3"/>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A340" s="2">
         <v>5426</v>
       </c>
-      <c r="B340">
-        <v>-20.600309580000001</v>
-      </c>
-      <c r="C340">
-        <v>25.228263699999999</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341">
+      <c r="B340" s="3">
+        <v>-17.740124389999998</v>
+      </c>
+      <c r="C340" s="3">
+        <v>20.56720992</v>
+      </c>
+      <c r="G340" s="2"/>
+      <c r="H340" s="3"/>
+      <c r="I340" s="3"/>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A341" s="2">
         <v>5427</v>
       </c>
-      <c r="B341">
-        <v>-17.59814373</v>
-      </c>
-      <c r="C341">
-        <v>24.704843520000001</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342">
+      <c r="B341" s="3">
+        <v>-14.20384979</v>
+      </c>
+      <c r="C341" s="3">
+        <v>19.946868800000001</v>
+      </c>
+      <c r="G341" s="2"/>
+      <c r="H341" s="3"/>
+      <c r="I341" s="3"/>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A342" s="2">
         <v>5428</v>
       </c>
-      <c r="B342">
-        <v>-22.040219870000001</v>
-      </c>
-      <c r="C342">
-        <v>25.724343659999999</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343">
+      <c r="B342" s="3">
+        <v>-18.178161469999999</v>
+      </c>
+      <c r="C342" s="3">
+        <v>20.634317630000002</v>
+      </c>
+      <c r="G342" s="2"/>
+      <c r="H342" s="3"/>
+      <c r="I342" s="3"/>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A343" s="2">
         <v>5429</v>
       </c>
-      <c r="B343">
-        <v>-23.150467410000001</v>
-      </c>
-      <c r="C343">
-        <v>25.75575504</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A344">
+      <c r="B343" s="3">
+        <v>-17.594849589999999</v>
+      </c>
+      <c r="C343" s="3">
+        <v>20.79371197</v>
+      </c>
+      <c r="G343" s="2"/>
+      <c r="H343" s="3"/>
+      <c r="I343" s="3"/>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A344" s="2">
         <v>5430</v>
       </c>
-      <c r="B344">
-        <v>-45.488668449999999</v>
-      </c>
-      <c r="C344">
-        <v>25.31698119</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A345">
+      <c r="B344" s="3">
+        <v>-36.804994219999998</v>
+      </c>
+      <c r="C344" s="3">
+        <v>21.29590614</v>
+      </c>
+      <c r="G344" s="2"/>
+      <c r="H344" s="3"/>
+      <c r="I344" s="3"/>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A345" s="2">
         <v>5432</v>
       </c>
-      <c r="B345">
-        <v>-21.023005820000002</v>
-      </c>
-      <c r="C345">
-        <v>24.6486293</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346">
+      <c r="B345" s="3">
+        <v>-15.466739090000001</v>
+      </c>
+      <c r="C345" s="3">
+        <v>20.004695860000002</v>
+      </c>
+      <c r="G345" s="2"/>
+      <c r="H345" s="3"/>
+      <c r="I345" s="3"/>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A346" s="2">
         <v>5433</v>
       </c>
-      <c r="B346">
-        <v>-25.08504344</v>
-      </c>
-      <c r="C346">
-        <v>24.71742562</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347">
+      <c r="B346" s="3">
+        <v>-16.032818939999999</v>
+      </c>
+      <c r="C346" s="3">
+        <v>20.086010510000001</v>
+      </c>
+      <c r="G346" s="2"/>
+      <c r="H346" s="3"/>
+      <c r="I346" s="3"/>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A347" s="2">
         <v>5434</v>
       </c>
-      <c r="B347">
-        <v>-32.56484098</v>
-      </c>
-      <c r="C347">
-        <v>25.361290669999999</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A348">
+      <c r="B347" s="3">
+        <v>-19.16046995</v>
+      </c>
+      <c r="C347" s="3">
+        <v>19.62790816</v>
+      </c>
+      <c r="G347" s="2"/>
+      <c r="H347" s="3"/>
+      <c r="I347" s="3"/>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A348" s="2">
         <v>5435</v>
       </c>
-      <c r="B348">
-        <v>-32.244758670000003</v>
-      </c>
-      <c r="C348">
-        <v>25.52097156</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A349">
+      <c r="B348" s="3">
+        <v>-19.17789754</v>
+      </c>
+      <c r="C348" s="3">
+        <v>20.158530930000001</v>
+      </c>
+      <c r="G348" s="2"/>
+      <c r="H348" s="3"/>
+      <c r="I348" s="3"/>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A349" s="2">
         <v>5436</v>
       </c>
-      <c r="B349">
-        <v>-37.962502649999998</v>
-      </c>
-      <c r="C349">
-        <v>26.721128190000002</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A350">
+      <c r="B349" s="3">
+        <v>-28.056965340000001</v>
+      </c>
+      <c r="C349" s="3">
+        <v>21.122381570000002</v>
+      </c>
+      <c r="G349" s="2"/>
+      <c r="H349" s="3"/>
+      <c r="I349" s="3"/>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A350" s="2">
         <v>5437</v>
       </c>
-      <c r="B350">
-        <v>-48.427434949999999</v>
-      </c>
-      <c r="C350">
-        <v>27.212710220000002</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A351">
+      <c r="B350" s="3">
+        <v>-37.897255829999999</v>
+      </c>
+      <c r="C350" s="3">
+        <v>22.494163069999999</v>
+      </c>
+      <c r="G350" s="2"/>
+      <c r="H350" s="3"/>
+      <c r="I350" s="3"/>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A351" s="2">
         <v>5438</v>
       </c>
-      <c r="B351">
-        <v>-31.20705645</v>
-      </c>
-      <c r="C351">
-        <v>24.856487940000001</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A352">
+      <c r="B351" s="3">
+        <v>-19.400676480000001</v>
+      </c>
+      <c r="C351" s="3">
+        <v>21.038139059999999</v>
+      </c>
+      <c r="G351" s="2"/>
+      <c r="H351" s="3"/>
+      <c r="I351" s="3"/>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A352" s="2">
         <v>5439</v>
       </c>
-      <c r="B352">
-        <v>-29.566257239999999</v>
-      </c>
-      <c r="C352">
-        <v>22.359039769999999</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A353">
+      <c r="B352" s="3">
+        <v>-17.931554089999999</v>
+      </c>
+      <c r="C352" s="3">
+        <v>18.642433709999999</v>
+      </c>
+      <c r="G352" s="2"/>
+      <c r="H352" s="3"/>
+      <c r="I352" s="3"/>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A353" s="2">
         <v>5440</v>
       </c>
-      <c r="B353">
-        <v>-24.32230663</v>
-      </c>
-      <c r="C353">
-        <v>21.85815586</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A354">
+      <c r="B353" s="3">
+        <v>-16.249746590000001</v>
+      </c>
+      <c r="C353" s="3">
+        <v>18.856538019999999</v>
+      </c>
+      <c r="G353" s="2"/>
+      <c r="H353" s="3"/>
+      <c r="I353" s="3"/>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A354" s="2">
         <v>5441</v>
       </c>
-      <c r="B354">
-        <v>-36.330314440000002</v>
-      </c>
-      <c r="C354">
-        <v>24.311165760000002</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A355">
+      <c r="B354" s="3">
+        <v>-27.760108880000001</v>
+      </c>
+      <c r="C354" s="3">
+        <v>20.044251620000001</v>
+      </c>
+      <c r="G354" s="2"/>
+      <c r="H354" s="3"/>
+      <c r="I354" s="3"/>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A355" s="2">
         <v>5442</v>
       </c>
-      <c r="B355">
-        <v>-36.048090709999997</v>
-      </c>
-      <c r="C355">
-        <v>25.95086045</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A356">
+      <c r="B355" s="3">
+        <v>-27.261310309999999</v>
+      </c>
+      <c r="C355" s="3">
+        <v>20.715977169999999</v>
+      </c>
+      <c r="G355" s="2"/>
+      <c r="H355" s="3"/>
+      <c r="I355" s="3"/>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A356" s="2">
         <v>5443</v>
       </c>
-      <c r="B356">
-        <v>-24.17303433</v>
-      </c>
-      <c r="C356">
-        <v>21.947243579999999</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A357">
+      <c r="B356" s="3">
+        <v>-16.414068910000001</v>
+      </c>
+      <c r="C356" s="3">
+        <v>18.75515223</v>
+      </c>
+      <c r="G356" s="2"/>
+      <c r="H356" s="3"/>
+      <c r="I356" s="3"/>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A357" s="2">
         <v>5444</v>
       </c>
-      <c r="B357">
-        <v>-37.82923882</v>
-      </c>
-      <c r="C357">
-        <v>26.640925339999999</v>
-      </c>
+      <c r="B357" s="3">
+        <v>-28.622606900000001</v>
+      </c>
+      <c r="C357" s="3">
+        <v>21.199425569999999</v>
+      </c>
+      <c r="G357" s="2"/>
+      <c r="H357" s="3"/>
+      <c r="I357" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
